--- a/notebooks/PPT图表.xlsx
+++ b/notebooks/PPT图表.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nieyuzhou\PycharmProjects\soccer\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0DF66A4-92EF-40C4-A880-E0C97A2B64D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F170EF1D-30BC-4138-A299-1142AA0131F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="-108" windowWidth="29712" windowHeight="17496" activeTab="3" xr2:uid="{C072114A-190D-49D2-B7C1-9FACF8CFD5ED}"/>
+    <workbookView xWindow="888" yWindow="-108" windowWidth="29940" windowHeight="17496" xr2:uid="{C072114A-190D-49D2-B7C1-9FACF8CFD5ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId7"/>
+    <sheet name="leaderboard" sheetId="9" r:id="rId1"/>
+    <sheet name="球员位置变化" sheetId="11" r:id="rId2"/>
+    <sheet name="球员能力变化" sheetId="10" r:id="rId3"/>
+    <sheet name="六维属性" sheetId="1" r:id="rId4"/>
+    <sheet name="PageRank之殇" sheetId="5" r:id="rId5"/>
+    <sheet name="网格搜索配置" sheetId="6" r:id="rId6"/>
+    <sheet name="初步结果报告" sheetId="7" r:id="rId7"/>
+    <sheet name="总体任务" sheetId="2" r:id="rId8"/>
+    <sheet name="数据概览" sheetId="3" r:id="rId9"/>
+    <sheet name="特征概览" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="140">
   <si>
     <t>Attacking</t>
   </si>
@@ -171,7 +174,7 @@
   </si>
   <si>
     <t>对比赛结果进行预测（多分类任务）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Table</t>
@@ -250,11 +253,11 @@
   </si>
   <si>
     <t>team 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>team 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>数据集配置</t>
@@ -351,7 +354,7 @@
   </si>
   <si>
     <t>4:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -378,11 +381,11 @@
   </si>
   <si>
     <t>balanced accuracy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>f1 score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>precision</t>
@@ -410,19 +413,116 @@
   </si>
   <si>
     <t>weighted avg</t>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>score_test</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>score_val</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>pred_time_test</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>pred_time_val</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>fit_time</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack_level</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>fit_order</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeuralNetTorch</t>
+  </si>
+  <si>
+    <t>ExtraTreesGini</t>
+  </si>
+  <si>
+    <t>LightGBMXT</t>
+  </si>
+  <si>
+    <t>RandomForestGini</t>
+  </si>
+  <si>
+    <t>CatBoost</t>
+  </si>
+  <si>
+    <t>ExtraTreesEntr</t>
+  </si>
+  <si>
+    <t>RandomForestEntr</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>WeightedEnsemble_L2</t>
+  </si>
+  <si>
+    <t>LightGBM</t>
+  </si>
+  <si>
+    <t>LightGBMLarge</t>
+  </si>
+  <si>
+    <t>NeuralNetFastAI</t>
+  </si>
+  <si>
+    <t>KNeighborsDist</t>
+  </si>
+  <si>
+    <t>KNeighborsUnif</t>
+  </si>
+  <si>
+    <t>Win</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draw</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defeat</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00000_);[Red]\(0.00000\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -561,6 +661,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -594,7 +701,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -774,19 +881,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -796,255 +981,396 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{C8F40621-0694-4DB5-A75C-DE5F2F35C677}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1068,6 +1394,260 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD3A907-E351-4A75-9B68-C0026C36CB7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4716780" y="4831080"/>
+          <a:ext cx="11163300" cy="3962400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EF65815-EB3E-4FAA-9A2F-216713FD8EC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8717280" y="2026920"/>
+          <a:ext cx="6896100" cy="5913120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4373880" cy="1927860"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76EE1F7C-0E0C-467C-9AA0-CA881E873D7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="3505200"/>
+          <a:ext cx="4373880" cy="1927860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4610100" cy="2476500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7682880-3E47-4D50-B846-56D9AC7D31AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="3680460"/>
+          <a:ext cx="4610100" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1133,7 +1713,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1199,7 +1779,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1265,7 +1845,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1331,7 +1911,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1397,7 +1977,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1442,72 +2022,6 @@
         <a:xfrm>
           <a:off x="6309360" y="2286000"/>
           <a:ext cx="4488180" cy="3055620"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EF65815-EB3E-4FAA-9A2F-216713FD8EC7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8717280" y="2026920"/>
-          <a:ext cx="6896100" cy="5913120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1825,6 +2339,828 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7AB2F8-042E-4CCF-B0CF-B85AE68AED86}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="18.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59"/>
+      <c r="B1" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62">
+        <v>0</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="64">
+        <v>0.52385946500000002</v>
+      </c>
+      <c r="D2" s="63">
+        <v>0.52031454799999999</v>
+      </c>
+      <c r="E2" s="64">
+        <v>6.4013242999999997E-2</v>
+      </c>
+      <c r="F2" s="63">
+        <v>2.9007673000000001E-2</v>
+      </c>
+      <c r="G2" s="64">
+        <v>14.68756795</v>
+      </c>
+      <c r="H2" s="65">
+        <v>1</v>
+      </c>
+      <c r="I2" s="66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62">
+        <v>1</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="64">
+        <v>0.52045096999999996</v>
+      </c>
+      <c r="D3" s="63">
+        <v>0.513761468</v>
+      </c>
+      <c r="E3" s="64">
+        <v>0.31906890900000001</v>
+      </c>
+      <c r="F3" s="63">
+        <v>9.8019599999999998E-2</v>
+      </c>
+      <c r="G3" s="64">
+        <v>1.7373971939999999</v>
+      </c>
+      <c r="H3" s="65">
+        <v>1</v>
+      </c>
+      <c r="I3" s="66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="62">
+        <v>2</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="64">
+        <v>0.51861562699999997</v>
+      </c>
+      <c r="D4" s="63">
+        <v>0.52490170400000002</v>
+      </c>
+      <c r="E4" s="64">
+        <v>3.2007455999999997E-2</v>
+      </c>
+      <c r="F4" s="63">
+        <v>1.3002395999999999E-2</v>
+      </c>
+      <c r="G4" s="64">
+        <v>3.8549094199999998</v>
+      </c>
+      <c r="H4" s="65">
+        <v>1</v>
+      </c>
+      <c r="I4" s="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="62">
+        <v>3</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="64">
+        <v>0.51835343499999997</v>
+      </c>
+      <c r="D5" s="63">
+        <v>0.51441677600000002</v>
+      </c>
+      <c r="E5" s="64">
+        <v>0.236049175</v>
+      </c>
+      <c r="F5" s="63">
+        <v>9.0020657000000004E-2</v>
+      </c>
+      <c r="G5" s="64">
+        <v>3.1672344209999999</v>
+      </c>
+      <c r="H5" s="65">
+        <v>1</v>
+      </c>
+      <c r="I5" s="66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="62">
+        <v>4</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="64">
+        <v>0.51756685899999999</v>
+      </c>
+      <c r="D6" s="63">
+        <v>0.52293577999999996</v>
+      </c>
+      <c r="E6" s="64">
+        <v>1.6004562E-2</v>
+      </c>
+      <c r="F6" s="63">
+        <v>5.9995650000000001E-3</v>
+      </c>
+      <c r="G6" s="64">
+        <v>14.261445760000001</v>
+      </c>
+      <c r="H6" s="65">
+        <v>1</v>
+      </c>
+      <c r="I6" s="66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="62">
+        <v>5</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="64">
+        <v>0.517304667</v>
+      </c>
+      <c r="D7" s="63">
+        <v>0.51507208400000004</v>
+      </c>
+      <c r="E7" s="64">
+        <v>0.29607319799999998</v>
+      </c>
+      <c r="F7" s="63">
+        <v>9.0020418000000005E-2</v>
+      </c>
+      <c r="G7" s="64">
+        <v>1.829491615</v>
+      </c>
+      <c r="H7" s="65">
+        <v>1</v>
+      </c>
+      <c r="I7" s="66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="62">
+        <v>6</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="64">
+        <v>0.517042475</v>
+      </c>
+      <c r="D8" s="63">
+        <v>0.51245085199999996</v>
+      </c>
+      <c r="E8" s="64">
+        <v>0.24606227899999999</v>
+      </c>
+      <c r="F8" s="63">
+        <v>8.3019256999999999E-2</v>
+      </c>
+      <c r="G8" s="64">
+        <v>4.9991767410000003</v>
+      </c>
+      <c r="H8" s="65">
+        <v>1</v>
+      </c>
+      <c r="I8" s="66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="62">
+        <v>7</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="64">
+        <v>0.51573151500000003</v>
+      </c>
+      <c r="D9" s="63">
+        <v>0.51638269999999997</v>
+      </c>
+      <c r="E9" s="64">
+        <v>4.6008347999999998E-2</v>
+      </c>
+      <c r="F9" s="63">
+        <v>1.9996404999999998E-2</v>
+      </c>
+      <c r="G9" s="64">
+        <v>14.80834055</v>
+      </c>
+      <c r="H9" s="65">
+        <v>1</v>
+      </c>
+      <c r="I9" s="66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="62">
+        <v>8</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="64">
+        <v>0.51520713200000001</v>
+      </c>
+      <c r="D10" s="63">
+        <v>0.52948885999999995</v>
+      </c>
+      <c r="E10" s="64">
+        <v>7.7016353999999995E-2</v>
+      </c>
+      <c r="F10" s="63">
+        <v>2.2003888999999999E-2</v>
+      </c>
+      <c r="G10" s="64">
+        <v>7.2707045079999997</v>
+      </c>
+      <c r="H10" s="65">
+        <v>2</v>
+      </c>
+      <c r="I10" s="66">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="62">
+        <v>9</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="64">
+        <v>0.51442055600000003</v>
+      </c>
+      <c r="D11" s="63">
+        <v>0.52686762799999998</v>
+      </c>
+      <c r="E11" s="64">
+        <v>1.6003132E-2</v>
+      </c>
+      <c r="F11" s="63">
+        <v>9.0014929999999993E-3</v>
+      </c>
+      <c r="G11" s="64">
+        <v>3.0576934809999998</v>
+      </c>
+      <c r="H11" s="65">
+        <v>1</v>
+      </c>
+      <c r="I11" s="66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="62">
+        <v>10</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="64">
+        <v>0.51232301999999996</v>
+      </c>
+      <c r="D12" s="63">
+        <v>0.513761468</v>
+      </c>
+      <c r="E12" s="64">
+        <v>2.1002531000000001E-2</v>
+      </c>
+      <c r="F12" s="63">
+        <v>1.0000943999999999E-2</v>
+      </c>
+      <c r="G12" s="64">
+        <v>10.487364769999999</v>
+      </c>
+      <c r="H12" s="65">
+        <v>1</v>
+      </c>
+      <c r="I12" s="66">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="62">
+        <v>11</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="64">
+        <v>0.50996329299999998</v>
+      </c>
+      <c r="D13" s="63">
+        <v>0.50982961999999998</v>
+      </c>
+      <c r="E13" s="64">
+        <v>0.24205660800000001</v>
+      </c>
+      <c r="F13" s="63">
+        <v>9.2021226999999997E-2</v>
+      </c>
+      <c r="G13" s="64">
+        <v>18.597759960000001</v>
+      </c>
+      <c r="H13" s="65">
+        <v>1</v>
+      </c>
+      <c r="I13" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="62">
+        <v>12</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="64">
+        <v>0.45149449400000002</v>
+      </c>
+      <c r="D14" s="63">
+        <v>0.43381389300000001</v>
+      </c>
+      <c r="E14" s="64">
+        <v>1.3348279000000001</v>
+      </c>
+      <c r="F14" s="63">
+        <v>0.51110625300000001</v>
+      </c>
+      <c r="G14" s="64">
+        <v>4.6007156E-2</v>
+      </c>
+      <c r="H14" s="65">
+        <v>1</v>
+      </c>
+      <c r="I14" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="67">
+        <v>13</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="69">
+        <v>0.44022024100000001</v>
+      </c>
+      <c r="D15" s="68">
+        <v>0.414809961</v>
+      </c>
+      <c r="E15" s="69">
+        <v>1.323301077</v>
+      </c>
+      <c r="F15" s="68">
+        <v>0.518125057</v>
+      </c>
+      <c r="G15" s="69">
+        <v>4.6010493999999999E-2</v>
+      </c>
+      <c r="H15" s="70">
+        <v>1</v>
+      </c>
+      <c r="I15" s="71">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FCBA05-32E6-4053-9E29-EC9F0E276D36}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="79.33203125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="131" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="132"/>
+      <c r="B2" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="132"/>
+      <c r="B3" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="132" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="132"/>
+      <c r="B5" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="132"/>
+      <c r="B6" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="132" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="132"/>
+      <c r="B8" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="132"/>
+      <c r="B9" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="132"/>
+      <c r="B10" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="133"/>
+      <c r="B11" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A11"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F01B42-9688-448B-82BE-CE7CDC74991C}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" style="72" customWidth="1"/>
+    <col min="2" max="4" width="16.77734375" style="72" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="72"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="105"/>
+      <c r="B1" s="104" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="85">
+        <v>7</v>
+      </c>
+      <c r="B2" s="102">
+        <v>0.16624</v>
+      </c>
+      <c r="C2" s="101">
+        <v>0.24737000000000001</v>
+      </c>
+      <c r="D2" s="100">
+        <v>0.58638999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77">
+        <v>7</v>
+      </c>
+      <c r="B3" s="99">
+        <v>0.16627</v>
+      </c>
+      <c r="C3" s="98">
+        <v>0.24689</v>
+      </c>
+      <c r="D3" s="97">
+        <v>0.58684000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="96">
+        <v>3327</v>
+      </c>
+      <c r="B4" s="95">
+        <v>0.38764999999999999</v>
+      </c>
+      <c r="C4" s="94">
+        <v>0.31324999999999997</v>
+      </c>
+      <c r="D4" s="93">
+        <v>0.29910999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="92">
+        <v>3327</v>
+      </c>
+      <c r="B5" s="91">
+        <v>0.41522999999999999</v>
+      </c>
+      <c r="C5" s="90">
+        <v>0.30164999999999997</v>
+      </c>
+      <c r="D5" s="89">
+        <v>0.28312999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="96">
+        <v>19732</v>
+      </c>
+      <c r="B6" s="95">
+        <v>0.18275</v>
+      </c>
+      <c r="C6" s="94">
+        <v>0.23985999999999999</v>
+      </c>
+      <c r="D6" s="93">
+        <v>0.57738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="92">
+        <v>19732</v>
+      </c>
+      <c r="B7" s="91">
+        <v>0.18506</v>
+      </c>
+      <c r="C7" s="90">
+        <v>0.24209</v>
+      </c>
+      <c r="D7" s="89">
+        <v>0.57284000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28655D9-34CB-4B31-86E8-1BA6EFAEE9E9}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="16.77734375" style="72" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="72"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="88"/>
+      <c r="B1" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="85">
+        <v>1</v>
+      </c>
+      <c r="B2" s="84">
+        <v>0.35463122000000002</v>
+      </c>
+      <c r="C2" s="83">
+        <v>0.24695503999999999</v>
+      </c>
+      <c r="D2" s="82">
+        <v>0.39841369999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77">
+        <v>1</v>
+      </c>
+      <c r="B3" s="76">
+        <v>0.35778690000000002</v>
+      </c>
+      <c r="C3" s="75">
+        <v>0.24988082</v>
+      </c>
+      <c r="D3" s="74">
+        <v>0.39233225999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="85">
+        <v>4179</v>
+      </c>
+      <c r="B4" s="84">
+        <v>0.14050377999999999</v>
+      </c>
+      <c r="C4" s="83">
+        <v>0.23501453999999999</v>
+      </c>
+      <c r="D4" s="82">
+        <v>0.62448170000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="77">
+        <v>4179</v>
+      </c>
+      <c r="B5" s="76">
+        <v>0.14066071999999999</v>
+      </c>
+      <c r="C5" s="75">
+        <v>0.23469345</v>
+      </c>
+      <c r="D5" s="74">
+        <v>0.62464580000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="85">
+        <v>8801</v>
+      </c>
+      <c r="B6" s="84">
+        <v>0.33910748000000002</v>
+      </c>
+      <c r="C6" s="83">
+        <v>0.29742540000000001</v>
+      </c>
+      <c r="D6" s="82">
+        <v>0.36346709999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="77">
+        <v>8801</v>
+      </c>
+      <c r="B7" s="76">
+        <v>0.33908709999999997</v>
+      </c>
+      <c r="C7" s="75">
+        <v>0.29733142000000001</v>
+      </c>
+      <c r="D7" s="74">
+        <v>0.36358144999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="81">
+        <v>20087</v>
+      </c>
+      <c r="B8" s="80">
+        <v>7.7116190000000001E-2</v>
+      </c>
+      <c r="C8" s="79">
+        <v>6.6833660000000003E-2</v>
+      </c>
+      <c r="D8" s="78">
+        <v>0.85605012999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="77">
+        <v>20087</v>
+      </c>
+      <c r="B9" s="76">
+        <v>7.6882560000000003E-2</v>
+      </c>
+      <c r="C9" s="75">
+        <v>6.6914946000000003E-2</v>
+      </c>
+      <c r="D9" s="74">
+        <v>0.85620249999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="73"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A581D52-338C-44D5-8D06-E41268E9820C}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1911,7 +3247,7 @@
       <c r="E4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="106"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -1929,7 +3265,7 @@
       <c r="E5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="106"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
@@ -1938,34 +3274,34 @@
       <c r="B6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F4:F6"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB51CC5-B7B9-4C07-B263-3463B01D291F}">
   <dimension ref="A2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1974,68 +3310,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="20">
         <v>9783</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="21">
         <v>10278</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="20">
         <v>8634</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="21">
         <v>10278</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="20">
         <v>8302</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="21">
         <v>10278</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47">
+      <c r="A6" s="37">
         <v>8560</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="38">
         <v>10278</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="39">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D6507C-E7C9-4A14-8066-C915FA9FC4D1}">
   <dimension ref="D7:H17"/>
   <sheetViews>
@@ -2053,170 +3389,164 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="57" t="s">
+      <c r="E7" s="120"/>
+      <c r="F7" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="58"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="120"/>
     </row>
     <row r="8" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="62"/>
+      <c r="H8" s="121"/>
     </row>
     <row r="9" spans="4:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="21">
         <v>0.8</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="47" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="4:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="21">
         <v>0.2</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="64" t="s">
+      <c r="H10" s="46" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="11" spans="4:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="48" t="s">
+      <c r="E11" s="109"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="51" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="4:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="70" t="s">
+      <c r="G12" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="64" t="s">
+      <c r="H12" s="46" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="13" spans="4:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="D13" s="72">
+      <c r="D13" s="118">
         <v>5</v>
       </c>
-      <c r="E13" s="75" t="s">
+      <c r="E13" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="48" t="s">
+      <c r="F13" s="113"/>
+      <c r="G13" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="H13" s="51" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" spans="4:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="D14" s="72"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="52" t="s">
+      <c r="D14" s="118"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="47" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="4:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="61"/>
-      <c r="F15" s="52" t="s">
+      <c r="E15" s="109"/>
+      <c r="F15" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="H15" s="67" t="s">
+      <c r="H15" s="47" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="16" spans="4:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="75" t="s">
+      <c r="E16" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="73" t="s">
+      <c r="G16" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="65" t="s">
+      <c r="H16" s="116" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="4:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="51"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="66"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="D16:D17"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="F10:F11"/>
@@ -2225,19 +3555,25 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="D16:D17"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32AF93B9-FA0E-4001-8BED-F2CC4C957897}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2246,122 +3582,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="79" t="s">
+      <c r="A1" s="53"/>
+      <c r="B1" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="55" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="21">
         <v>0.49</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="21">
         <v>0.51</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="21">
         <v>0.5</v>
       </c>
-      <c r="E2" s="69">
+      <c r="E2" s="49">
         <v>1135</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="21">
         <v>0.26</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="21">
         <v>0.01</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="21">
         <v>0.01</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="49">
         <v>993</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="38">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="38">
         <v>0.84</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="38">
         <v>0.66</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="42">
         <v>1807</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="85"/>
+      <c r="A5" s="123"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="125"/>
     </row>
     <row r="6" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="70">
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="50">
         <v>0.53</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="41">
         <v>3935</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="21">
         <v>0.44</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="21">
         <v>0.45</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="21">
         <v>0.39</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="49">
         <v>3935</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="38">
         <v>0.46</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="38">
         <v>0.53</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="38">
         <v>0.45</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="42">
         <v>3935</v>
       </c>
     </row>
@@ -2370,13 +3706,13 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="B6:C6"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C9CA70-E808-4C46-ABBF-C45914B942ED}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -2390,65 +3726,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="128" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="129"/>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="39"/>
+      <c r="C4" s="129"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="42"/>
+      <c r="C5" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C2:C5"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCC7C40-EFF8-4ACB-8CB7-4F5BFEAEEAD2}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2550,105 +3886,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FCBA05-32E6-4053-9E29-EC9F0E276D36}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="79.33203125" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A11"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/notebooks/PPT图表.xlsx
+++ b/notebooks/PPT图表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nieyuzhou\PycharmProjects\soccer\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F170EF1D-30BC-4138-A299-1142AA0131F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEA7F00-6D48-4155-B3D2-A775B4C63AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="888" yWindow="-108" windowWidth="29940" windowHeight="17496" xr2:uid="{C072114A-190D-49D2-B7C1-9FACF8CFD5ED}"/>
   </bookViews>
@@ -1289,24 +1289,39 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1317,21 +1332,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1529,10 +1529,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4373880" cy="1927860"/>
     <xdr:pic>
@@ -1563,7 +1563,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="3505200"/>
+          <a:off x="3649980" y="4678680"/>
           <a:ext cx="4373880" cy="1927860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2343,7 +2343,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3389,15 +3389,15 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="120"/>
-      <c r="F7" s="119" t="s">
+      <c r="E7" s="109"/>
+      <c r="F7" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="119"/>
-      <c r="H7" s="120"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="109"/>
     </row>
     <row r="8" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="44" t="s">
@@ -3409,10 +3409,10 @@
       <c r="F8" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="109" t="s">
+      <c r="G8" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="121"/>
+      <c r="H8" s="111"/>
     </row>
     <row r="9" spans="4:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="52" t="s">
@@ -3449,10 +3449,10 @@
       </c>
     </row>
     <row r="11" spans="4:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="109"/>
+      <c r="E11" s="110"/>
       <c r="F11" s="113"/>
       <c r="G11" s="38" t="s">
         <v>85</v>
@@ -3479,10 +3479,10 @@
       </c>
     </row>
     <row r="13" spans="4:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="D13" s="118">
+      <c r="D13" s="115">
         <v>5</v>
       </c>
-      <c r="E13" s="110" t="s">
+      <c r="E13" s="116" t="s">
         <v>102</v>
       </c>
       <c r="F13" s="113"/>
@@ -3494,8 +3494,8 @@
       </c>
     </row>
     <row r="14" spans="4:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="D14" s="118"/>
-      <c r="E14" s="110"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="40" t="s">
         <v>92</v>
       </c>
@@ -3507,10 +3507,10 @@
       </c>
     </row>
     <row r="15" spans="4:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="108" t="s">
+      <c r="D15" s="114" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="109"/>
+      <c r="E15" s="110"/>
       <c r="F15" s="40" t="s">
         <v>95</v>
       </c>
@@ -3522,31 +3522,37 @@
       </c>
     </row>
     <row r="16" spans="4:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="118" t="s">
+      <c r="D16" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="110" t="s">
+      <c r="E16" s="116" t="s">
         <v>105</v>
       </c>
       <c r="F16" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="114" t="s">
+      <c r="G16" s="119" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="116" t="s">
+      <c r="H16" s="121" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="4:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="113"/>
-      <c r="E17" s="111"/>
+      <c r="E17" s="118"/>
       <c r="F17" s="113"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="117"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="D16:D17"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="F10:F11"/>
@@ -3555,12 +3561,6 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="D16:D17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3658,8 +3658,8 @@
       <c r="A6" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
       <c r="D6" s="50">
         <v>0.53</v>
       </c>

--- a/notebooks/PPT图表.xlsx
+++ b/notebooks/PPT图表.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nieyuzhou\PycharmProjects\soccer\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEA7F00-6D48-4155-B3D2-A775B4C63AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005449E3-DE30-4C15-8EB0-591E452DE174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="888" yWindow="-108" windowWidth="29940" windowHeight="17496" xr2:uid="{C072114A-190D-49D2-B7C1-9FACF8CFD5ED}"/>
+    <workbookView xWindow="888" yWindow="-108" windowWidth="29940" windowHeight="17496" activeTab="1" xr2:uid="{C072114A-190D-49D2-B7C1-9FACF8CFD5ED}"/>
   </bookViews>
   <sheets>
     <sheet name="leaderboard" sheetId="9" r:id="rId1"/>
-    <sheet name="球员位置变化" sheetId="11" r:id="rId2"/>
-    <sheet name="球员能力变化" sheetId="10" r:id="rId3"/>
-    <sheet name="六维属性" sheetId="1" r:id="rId4"/>
-    <sheet name="PageRank之殇" sheetId="5" r:id="rId5"/>
-    <sheet name="网格搜索配置" sheetId="6" r:id="rId6"/>
-    <sheet name="初步结果报告" sheetId="7" r:id="rId7"/>
-    <sheet name="总体任务" sheetId="2" r:id="rId8"/>
-    <sheet name="数据概览" sheetId="3" r:id="rId9"/>
-    <sheet name="特征概览" sheetId="4" r:id="rId10"/>
+    <sheet name="赌博策略" sheetId="12" r:id="rId2"/>
+    <sheet name="球员位置变化" sheetId="11" r:id="rId3"/>
+    <sheet name="球员能力变化" sheetId="10" r:id="rId4"/>
+    <sheet name="六维属性" sheetId="1" r:id="rId5"/>
+    <sheet name="PageRank之殇" sheetId="5" r:id="rId6"/>
+    <sheet name="网格搜索配置" sheetId="6" r:id="rId7"/>
+    <sheet name="初步结果报告" sheetId="7" r:id="rId8"/>
+    <sheet name="总体任务" sheetId="2" r:id="rId9"/>
+    <sheet name="数据概览" sheetId="3" r:id="rId10"/>
+    <sheet name="特征概览" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="149">
   <si>
     <t>Attacking</t>
   </si>
@@ -500,6 +501,42 @@
     <t>Defeat</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
+  <si>
+    <t>策略方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最安全的策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最冒险的策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们的模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确预测比例</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利比例</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -509,7 +546,7 @@
     <numFmt numFmtId="176" formatCode="0.00000_);[Red]\(0.00000\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,6 +705,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -701,7 +751,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -961,6 +1011,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -968,7 +1027,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1283,55 +1342,61 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1366,6 +1431,45 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="23" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="23" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1463,6 +1567,72 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9D61EB5-0415-4950-BDC5-2705ACDF0695}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6309360" y="2286000"/>
+          <a:ext cx="4488180" cy="3055620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -1527,6 +1697,72 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF0D2B5-B4AB-481E-A87F-528E30BDBBDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4274820" y="4389120"/>
+          <a:ext cx="7132320" cy="2293620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1586,7 +1822,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1647,7 +1883,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1713,7 +1949,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1779,7 +2015,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1845,7 +2081,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1911,7 +2147,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1956,72 +2192,6 @@
         <a:xfrm>
           <a:off x="4663440" y="3718560"/>
           <a:ext cx="5105400" cy="2674620"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9D61EB5-0415-4950-BDC5-2705ACDF0695}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6309360" y="2286000"/>
-          <a:ext cx="4488180" cy="3055620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2342,8 +2512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7AB2F8-042E-4CCF-B0CF-B85AE68AED86}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2795,6 +2965,114 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCC7C40-EFF8-4ACB-8CB7-4F5BFEAEEAD2}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="21.77734375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="10">
+        <v>11</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="10">
+        <v>11</v>
+      </c>
+      <c r="C3" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="10">
+        <v>25979</v>
+      </c>
+      <c r="C4" s="11">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="10">
+        <v>11060</v>
+      </c>
+      <c r="C5" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="10">
+        <v>183978</v>
+      </c>
+      <c r="C6" s="11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="10">
+        <v>299</v>
+      </c>
+      <c r="C7" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1458</v>
+      </c>
+      <c r="C8" s="14">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FCBA05-32E6-4053-9E29-EC9F0E276D36}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -2809,7 +3087,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="133" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="22" t="s">
@@ -2817,19 +3095,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="132"/>
+      <c r="A2" s="134"/>
       <c r="B2" s="23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="132"/>
+      <c r="A3" s="134"/>
       <c r="B3" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="134" t="s">
         <v>58</v>
       </c>
       <c r="B4" s="25" t="s">
@@ -2837,19 +3115,19 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="132"/>
+      <c r="A5" s="134"/>
       <c r="B5" s="25" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="132"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="134" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="23" t="s">
@@ -2857,25 +3135,25 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="132"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="23" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="132"/>
+      <c r="A9" s="134"/>
       <c r="B9" s="23" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="132"/>
+      <c r="A10" s="134"/>
       <c r="B10" s="23" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="133"/>
+      <c r="A11" s="135"/>
       <c r="B11" s="24" t="s">
         <v>67</v>
       </c>
@@ -2893,6 +3171,115 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8273919C-59DB-402D-9924-C8017A065405}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="136" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="136" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="136" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="139" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="143">
+        <v>169540</v>
+      </c>
+      <c r="C2" s="141">
+        <v>0.33350000000000002</v>
+      </c>
+      <c r="D2" s="138">
+        <v>-12291.4</v>
+      </c>
+      <c r="E2" s="142">
+        <v>-7.2499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="137" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="143">
+        <v>169540</v>
+      </c>
+      <c r="C3" s="141">
+        <v>0.53439999999999999</v>
+      </c>
+      <c r="D3" s="138">
+        <v>-6208.2</v>
+      </c>
+      <c r="E3" s="142">
+        <v>-3.6600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="137" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="143">
+        <v>169540</v>
+      </c>
+      <c r="C4" s="141">
+        <v>0.2084</v>
+      </c>
+      <c r="D4" s="138">
+        <v>-15059.8</v>
+      </c>
+      <c r="E4" s="142">
+        <v>-8.8800000000000004E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="140" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="144">
+        <v>152160</v>
+      </c>
+      <c r="C5" s="145">
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="D5" s="146">
+        <v>26439.7</v>
+      </c>
+      <c r="E5" s="147">
+        <v>0.17380000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="148"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F01B42-9688-448B-82BE-CE7CDC74991C}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -3011,7 +3398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28655D9-34CB-4B31-86E8-1BA6EFAEE9E9}">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -3160,7 +3547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A581D52-338C-44D5-8D06-E41268E9820C}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -3247,7 +3634,7 @@
       <c r="E4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="106"/>
+      <c r="F4" s="108"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -3265,7 +3652,7 @@
       <c r="E5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="106"/>
+      <c r="F5" s="108"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
@@ -3283,7 +3670,7 @@
       <c r="E6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="107"/>
+      <c r="F6" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3296,7 +3683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB51CC5-B7B9-4C07-B263-3463B01D291F}">
   <dimension ref="A2:C6"/>
   <sheetViews>
@@ -3371,7 +3758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D6507C-E7C9-4A14-8066-C915FA9FC4D1}">
   <dimension ref="D7:H17"/>
   <sheetViews>
@@ -3389,15 +3776,15 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="117" t="s">
+      <c r="D7" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="109"/>
-      <c r="F7" s="108" t="s">
+      <c r="E7" s="122"/>
+      <c r="F7" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="108"/>
-      <c r="H7" s="109"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="122"/>
     </row>
     <row r="8" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="44" t="s">
@@ -3409,10 +3796,10 @@
       <c r="F8" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="110" t="s">
+      <c r="G8" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="111"/>
+      <c r="H8" s="123"/>
     </row>
     <row r="9" spans="4:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="52" t="s">
@@ -3438,7 +3825,7 @@
       <c r="E10" s="21">
         <v>0.2</v>
       </c>
-      <c r="F10" s="112" t="s">
+      <c r="F10" s="114" t="s">
         <v>82</v>
       </c>
       <c r="G10" s="50" t="s">
@@ -3449,11 +3836,11 @@
       </c>
     </row>
     <row r="11" spans="4:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="114" t="s">
+      <c r="D11" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="110"/>
-      <c r="F11" s="113"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="115"/>
       <c r="G11" s="38" t="s">
         <v>85</v>
       </c>
@@ -3468,7 +3855,7 @@
       <c r="E12" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="112" t="s">
+      <c r="F12" s="114" t="s">
         <v>89</v>
       </c>
       <c r="G12" s="50" t="s">
@@ -3479,13 +3866,13 @@
       </c>
     </row>
     <row r="13" spans="4:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="D13" s="115">
+      <c r="D13" s="120">
         <v>5</v>
       </c>
-      <c r="E13" s="116" t="s">
+      <c r="E13" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="113"/>
+      <c r="F13" s="115"/>
       <c r="G13" s="38" t="s">
         <v>85</v>
       </c>
@@ -3494,8 +3881,8 @@
       </c>
     </row>
     <row r="14" spans="4:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="D14" s="115"/>
-      <c r="E14" s="116"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="112"/>
       <c r="F14" s="40" t="s">
         <v>92</v>
       </c>
@@ -3507,10 +3894,10 @@
       </c>
     </row>
     <row r="15" spans="4:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="114" t="s">
+      <c r="D15" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="110"/>
+      <c r="E15" s="111"/>
       <c r="F15" s="40" t="s">
         <v>95</v>
       </c>
@@ -3522,37 +3909,31 @@
       </c>
     </row>
     <row r="16" spans="4:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="115" t="s">
+      <c r="D16" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="116" t="s">
+      <c r="E16" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="112" t="s">
+      <c r="F16" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="119" t="s">
+      <c r="G16" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="121" t="s">
+      <c r="H16" s="118" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="4:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="113"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="122"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="D16:D17"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="F10:F11"/>
@@ -3561,6 +3942,12 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="D16:D17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3568,7 +3955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32AF93B9-FA0E-4001-8BED-F2CC4C957897}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -3648,18 +4035,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="123"/>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="125"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="127"/>
     </row>
     <row r="6" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
       <c r="D6" s="50">
         <v>0.53</v>
       </c>
@@ -3712,7 +4099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C9CA70-E808-4C46-ABBF-C45914B942ED}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -3726,10 +4113,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="127"/>
+      <c r="B1" s="129"/>
       <c r="C1" s="26" t="s">
         <v>34</v>
       </c>
@@ -3741,7 +4128,7 @@
       <c r="B2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="130" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3752,7 +4139,7 @@
       <c r="B3" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="129"/>
+      <c r="C3" s="131"/>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
@@ -3761,7 +4148,7 @@
       <c r="B4" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="129"/>
+      <c r="C4" s="131"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3771,7 +4158,7 @@
       <c r="B5" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="130"/>
+      <c r="C5" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3782,112 +4169,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCC7C40-EFF8-4ACB-8CB7-4F5BFEAEEAD2}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="21.77734375" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="10">
-        <v>11</v>
-      </c>
-      <c r="C2" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="10">
-        <v>11</v>
-      </c>
-      <c r="C3" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="10">
-        <v>25979</v>
-      </c>
-      <c r="C4" s="11">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="10">
-        <v>11060</v>
-      </c>
-      <c r="C5" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="10">
-        <v>183978</v>
-      </c>
-      <c r="C6" s="11">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="10">
-        <v>299</v>
-      </c>
-      <c r="C7" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="13">
-        <v>1458</v>
-      </c>
-      <c r="C8" s="14">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/notebooks/PPT图表.xlsx
+++ b/notebooks/PPT图表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nieyuzhou\PycharmProjects\soccer\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005449E3-DE30-4C15-8EB0-591E452DE174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD438E36-80CF-4925-B6A7-675A67F61231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="888" yWindow="-108" windowWidth="29940" windowHeight="17496" activeTab="1" xr2:uid="{C072114A-190D-49D2-B7C1-9FACF8CFD5ED}"/>
+    <workbookView xWindow="888" yWindow="-108" windowWidth="29940" windowHeight="17496" activeTab="4" xr2:uid="{C072114A-190D-49D2-B7C1-9FACF8CFD5ED}"/>
   </bookViews>
   <sheets>
     <sheet name="leaderboard" sheetId="9" r:id="rId1"/>
@@ -43,106 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="149">
-  <si>
-    <t>Attacking</t>
-  </si>
-  <si>
-    <t>Skill</t>
-  </si>
-  <si>
-    <t>Movement</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>Mentality</t>
-  </si>
-  <si>
-    <t>Defending</t>
-  </si>
-  <si>
-    <t>Crossing</t>
-  </si>
-  <si>
-    <t>Dribbling</t>
-  </si>
-  <si>
-    <t>Acceleration</t>
-  </si>
-  <si>
-    <t>Shot Power</t>
-  </si>
-  <si>
-    <t>Aggression</t>
-  </si>
-  <si>
-    <t>Standing Tackle</t>
-  </si>
-  <si>
-    <t>Finishing</t>
-  </si>
-  <si>
-    <t>Curve</t>
-  </si>
-  <si>
-    <t>Sprint Speed</t>
-  </si>
-  <si>
-    <t>Jumping</t>
-  </si>
-  <si>
-    <t>Interceptions</t>
-  </si>
-  <si>
-    <t>Sliding Tackle</t>
-  </si>
-  <si>
-    <t>Heading Accuracy</t>
-  </si>
-  <si>
-    <t>Free kick Accuracy</t>
-  </si>
-  <si>
-    <t>Agility</t>
-  </si>
-  <si>
-    <t>Stamina</t>
-  </si>
-  <si>
-    <t>Positioning</t>
-  </si>
-  <si>
-    <t>Short Passing</t>
-  </si>
-  <si>
-    <t>Long Passing</t>
-  </si>
-  <si>
-    <t>Reactions</t>
-  </si>
-  <si>
-    <t>Strength</t>
-  </si>
-  <si>
-    <t>Vision</t>
-  </si>
-  <si>
-    <t>Volleys</t>
-  </si>
-  <si>
-    <t>Ball Control</t>
-  </si>
-  <si>
-    <t>Balance</t>
-  </si>
-  <si>
-    <t>Long Shots</t>
-  </si>
-  <si>
-    <t>Penalties</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="147">
   <si>
     <t>描述分析</t>
   </si>
@@ -428,26 +329,10 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>pred_time_test</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>pred_time_val</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>fit_time</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>stack_level</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>fit_order</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>NeuralNetTorch</t>
   </si>
   <si>
@@ -536,6 +421,145 @@
   <si>
     <t>盈利比例</t>
     <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pace</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shooting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dribbling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defending</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acceleration(0.45)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint Speed(0.55)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volleys(0.06)</t>
+  </si>
+  <si>
+    <t>Shot Power(0.2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penalties(0.05)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long Shots(0.2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finishing(0.45)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack Position(0.05)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vision(0.2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crossing(0.2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curve(0.05)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK Accuracy(0.05)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long Pass(0.15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Short Pass(0.35)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agility(0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balance(0.05)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reactions(0.05)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ball Control(0.3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dribbling(0.5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interceptions(0.2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heading Acc(0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marking(0.3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slide Tackle(0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stand Tackle(0.3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aggression(0.2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jumping(0.05)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stamina(0.25)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strength(0.5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1027,7 +1051,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1073,21 +1097,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1203,45 +1212,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1348,10 +1318,76 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="23" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="23" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1432,44 +1468,20 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="23" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="23" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1501,23 +1513,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD3A907-E351-4A75-9B68-C0026C36CB7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0745292B-70E1-4F85-871B-D3AD8FDF11B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1540,8 +1552,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4716780" y="4831080"/>
-          <a:ext cx="11163300" cy="3962400"/>
+          <a:off x="8122920" y="2308860"/>
+          <a:ext cx="6301740" cy="4815840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1894,7 +1906,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2510,450 +2522,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7AB2F8-042E-4CCF-B0CF-B85AE68AED86}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E9"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="3" max="5" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59"/>
-      <c r="B1" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="I1" s="61" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62">
+    <row r="1" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48"/>
+      <c r="B1" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51">
         <v>0</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="64">
+      <c r="B2" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="109">
         <v>0.52385946500000002</v>
       </c>
-      <c r="D2" s="63">
+      <c r="D2" s="108">
         <v>0.52031454799999999</v>
       </c>
-      <c r="E2" s="64">
-        <v>6.4013242999999997E-2</v>
-      </c>
-      <c r="F2" s="63">
-        <v>2.9007673000000001E-2</v>
-      </c>
-      <c r="G2" s="64">
+      <c r="E2" s="110">
         <v>14.68756795</v>
       </c>
-      <c r="H2" s="65">
+    </row>
+    <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51">
         <v>1</v>
       </c>
-      <c r="I2" s="66">
+      <c r="B3" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="109">
+        <v>0.52045096999999996</v>
+      </c>
+      <c r="D3" s="108">
+        <v>0.513761468</v>
+      </c>
+      <c r="E3" s="110">
+        <v>1.7373971939999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51">
+        <v>2</v>
+      </c>
+      <c r="B4" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="109">
+        <v>0.51861562699999997</v>
+      </c>
+      <c r="D4" s="108">
+        <v>0.52490170400000002</v>
+      </c>
+      <c r="E4" s="110">
+        <v>3.8549094199999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51">
+        <v>3</v>
+      </c>
+      <c r="B5" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="109">
+        <v>0.51835343499999997</v>
+      </c>
+      <c r="D5" s="108">
+        <v>0.51441677600000002</v>
+      </c>
+      <c r="E5" s="110">
+        <v>3.1672344209999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51">
+        <v>4</v>
+      </c>
+      <c r="B6" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="109">
+        <v>0.51756685899999999</v>
+      </c>
+      <c r="D6" s="108">
+        <v>0.52293577999999996</v>
+      </c>
+      <c r="E6" s="110">
+        <v>14.261445760000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51">
+        <v>5</v>
+      </c>
+      <c r="B7" s="108" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="109">
+        <v>0.517304667</v>
+      </c>
+      <c r="D7" s="108">
+        <v>0.51507208400000004</v>
+      </c>
+      <c r="E7" s="110">
+        <v>1.829491615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51">
+        <v>6</v>
+      </c>
+      <c r="B8" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="109">
+        <v>0.517042475</v>
+      </c>
+      <c r="D8" s="108">
+        <v>0.51245085199999996</v>
+      </c>
+      <c r="E8" s="110">
+        <v>4.9991767410000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51">
+        <v>7</v>
+      </c>
+      <c r="B9" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="109">
+        <v>0.51573151500000003</v>
+      </c>
+      <c r="D9" s="108">
+        <v>0.51638269999999997</v>
+      </c>
+      <c r="E9" s="110">
+        <v>14.80834055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51">
+        <v>8</v>
+      </c>
+      <c r="B10" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="109">
+        <v>0.51520713200000001</v>
+      </c>
+      <c r="D10" s="108">
+        <v>0.52948885999999995</v>
+      </c>
+      <c r="E10" s="110">
+        <v>7.2707045079999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51">
+        <v>9</v>
+      </c>
+      <c r="B11" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="109">
+        <v>0.51442055600000003</v>
+      </c>
+      <c r="D11" s="108">
+        <v>0.52686762799999998</v>
+      </c>
+      <c r="E11" s="110">
+        <v>3.0576934809999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51">
+        <v>10</v>
+      </c>
+      <c r="B12" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="109">
+        <v>0.51232301999999996</v>
+      </c>
+      <c r="D12" s="108">
+        <v>0.513761468</v>
+      </c>
+      <c r="E12" s="110">
+        <v>10.487364769999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51">
+        <v>11</v>
+      </c>
+      <c r="B13" s="108" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="109">
+        <v>0.50996329299999998</v>
+      </c>
+      <c r="D13" s="108">
+        <v>0.50982961999999998</v>
+      </c>
+      <c r="E13" s="110">
+        <v>18.597759960000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="51">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62">
-        <v>1</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="64">
-        <v>0.52045096999999996</v>
-      </c>
-      <c r="D3" s="63">
-        <v>0.513761468</v>
-      </c>
-      <c r="E3" s="64">
-        <v>0.31906890900000001</v>
-      </c>
-      <c r="F3" s="63">
-        <v>9.8019599999999998E-2</v>
-      </c>
-      <c r="G3" s="64">
-        <v>1.7373971939999999</v>
-      </c>
-      <c r="H3" s="65">
-        <v>1</v>
-      </c>
-      <c r="I3" s="66">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62">
-        <v>2</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="64">
-        <v>0.51861562699999997</v>
-      </c>
-      <c r="D4" s="63">
-        <v>0.52490170400000002</v>
-      </c>
-      <c r="E4" s="64">
-        <v>3.2007455999999997E-2</v>
-      </c>
-      <c r="F4" s="63">
-        <v>1.3002395999999999E-2</v>
-      </c>
-      <c r="G4" s="64">
-        <v>3.8549094199999998</v>
-      </c>
-      <c r="H4" s="65">
-        <v>1</v>
-      </c>
-      <c r="I4" s="66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62">
-        <v>3</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="64">
-        <v>0.51835343499999997</v>
-      </c>
-      <c r="D5" s="63">
-        <v>0.51441677600000002</v>
-      </c>
-      <c r="E5" s="64">
-        <v>0.236049175</v>
-      </c>
-      <c r="F5" s="63">
-        <v>9.0020657000000004E-2</v>
-      </c>
-      <c r="G5" s="64">
-        <v>3.1672344209999999</v>
-      </c>
-      <c r="H5" s="65">
-        <v>1</v>
-      </c>
-      <c r="I5" s="66">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="62">
-        <v>4</v>
-      </c>
-      <c r="B6" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="64">
-        <v>0.51756685899999999</v>
-      </c>
-      <c r="D6" s="63">
-        <v>0.52293577999999996</v>
-      </c>
-      <c r="E6" s="64">
-        <v>1.6004562E-2</v>
-      </c>
-      <c r="F6" s="63">
-        <v>5.9995650000000001E-3</v>
-      </c>
-      <c r="G6" s="64">
-        <v>14.261445760000001</v>
-      </c>
-      <c r="H6" s="65">
-        <v>1</v>
-      </c>
-      <c r="I6" s="66">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="62">
-        <v>5</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="64">
-        <v>0.517304667</v>
-      </c>
-      <c r="D7" s="63">
-        <v>0.51507208400000004</v>
-      </c>
-      <c r="E7" s="64">
-        <v>0.29607319799999998</v>
-      </c>
-      <c r="F7" s="63">
-        <v>9.0020418000000005E-2</v>
-      </c>
-      <c r="G7" s="64">
-        <v>1.829491615</v>
-      </c>
-      <c r="H7" s="65">
-        <v>1</v>
-      </c>
-      <c r="I7" s="66">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="62">
-        <v>6</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="64">
-        <v>0.517042475</v>
-      </c>
-      <c r="D8" s="63">
-        <v>0.51245085199999996</v>
-      </c>
-      <c r="E8" s="64">
-        <v>0.24606227899999999</v>
-      </c>
-      <c r="F8" s="63">
-        <v>8.3019256999999999E-2</v>
-      </c>
-      <c r="G8" s="64">
-        <v>4.9991767410000003</v>
-      </c>
-      <c r="H8" s="65">
-        <v>1</v>
-      </c>
-      <c r="I8" s="66">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62">
-        <v>7</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="64">
-        <v>0.51573151500000003</v>
-      </c>
-      <c r="D9" s="63">
-        <v>0.51638269999999997</v>
-      </c>
-      <c r="E9" s="64">
-        <v>4.6008347999999998E-2</v>
-      </c>
-      <c r="F9" s="63">
-        <v>1.9996404999999998E-2</v>
-      </c>
-      <c r="G9" s="64">
-        <v>14.80834055</v>
-      </c>
-      <c r="H9" s="65">
-        <v>1</v>
-      </c>
-      <c r="I9" s="66">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62">
-        <v>8</v>
-      </c>
-      <c r="B10" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="64">
-        <v>0.51520713200000001</v>
-      </c>
-      <c r="D10" s="63">
-        <v>0.52948885999999995</v>
-      </c>
-      <c r="E10" s="64">
-        <v>7.7016353999999995E-2</v>
-      </c>
-      <c r="F10" s="63">
-        <v>2.2003888999999999E-2</v>
-      </c>
-      <c r="G10" s="64">
-        <v>7.2707045079999997</v>
-      </c>
-      <c r="H10" s="65">
-        <v>2</v>
-      </c>
-      <c r="I10" s="66">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62">
-        <v>9</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="64">
-        <v>0.51442055600000003</v>
-      </c>
-      <c r="D11" s="63">
-        <v>0.52686762799999998</v>
-      </c>
-      <c r="E11" s="64">
-        <v>1.6003132E-2</v>
-      </c>
-      <c r="F11" s="63">
-        <v>9.0014929999999993E-3</v>
-      </c>
-      <c r="G11" s="64">
-        <v>3.0576934809999998</v>
-      </c>
-      <c r="H11" s="65">
-        <v>1</v>
-      </c>
-      <c r="I11" s="66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="62">
-        <v>10</v>
-      </c>
-      <c r="B12" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="64">
-        <v>0.51232301999999996</v>
-      </c>
-      <c r="D12" s="63">
-        <v>0.513761468</v>
-      </c>
-      <c r="E12" s="64">
-        <v>2.1002531000000001E-2</v>
-      </c>
-      <c r="F12" s="63">
-        <v>1.0000943999999999E-2</v>
-      </c>
-      <c r="G12" s="64">
-        <v>10.487364769999999</v>
-      </c>
-      <c r="H12" s="65">
-        <v>1</v>
-      </c>
-      <c r="I12" s="66">
+      <c r="B14" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="109">
+        <v>0.45149449400000002</v>
+      </c>
+      <c r="D14" s="108">
+        <v>0.43381389300000001</v>
+      </c>
+      <c r="E14" s="110">
+        <v>4.6007156E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="52">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62">
-        <v>11</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="64">
-        <v>0.50996329299999998</v>
-      </c>
-      <c r="D13" s="63">
-        <v>0.50982961999999998</v>
-      </c>
-      <c r="E13" s="64">
-        <v>0.24205660800000001</v>
-      </c>
-      <c r="F13" s="63">
-        <v>9.2021226999999997E-2</v>
-      </c>
-      <c r="G13" s="64">
-        <v>18.597759960000001</v>
-      </c>
-      <c r="H13" s="65">
-        <v>1</v>
-      </c>
-      <c r="I13" s="66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="62">
-        <v>12</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="64">
-        <v>0.45149449400000002</v>
-      </c>
-      <c r="D14" s="63">
-        <v>0.43381389300000001</v>
-      </c>
-      <c r="E14" s="64">
-        <v>1.3348279000000001</v>
-      </c>
-      <c r="F14" s="63">
-        <v>0.51110625300000001</v>
-      </c>
-      <c r="G14" s="64">
-        <v>4.6007156E-2</v>
-      </c>
-      <c r="H14" s="65">
-        <v>1</v>
-      </c>
-      <c r="I14" s="66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67">
-        <v>13</v>
-      </c>
-      <c r="B15" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="69">
+      <c r="B15" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="112">
         <v>0.44022024100000001</v>
       </c>
-      <c r="D15" s="68">
+      <c r="D15" s="111">
         <v>0.414809961</v>
       </c>
-      <c r="E15" s="69">
-        <v>1.323301077</v>
-      </c>
-      <c r="F15" s="68">
-        <v>0.518125057</v>
-      </c>
-      <c r="G15" s="69">
+      <c r="E15" s="113">
         <v>4.6010493999999999E-2</v>
-      </c>
-      <c r="H15" s="70">
-        <v>1</v>
-      </c>
-      <c r="I15" s="71">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2979,18 +2811,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B2" s="10">
         <v>11</v>
@@ -3001,7 +2833,7 @@
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="B3" s="10">
         <v>11</v>
@@ -3012,7 +2844,7 @@
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B4" s="10">
         <v>25979</v>
@@ -3023,7 +2855,7 @@
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B5" s="10">
         <v>11060</v>
@@ -3034,7 +2866,7 @@
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B6" s="10">
         <v>183978</v>
@@ -3045,7 +2877,7 @@
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B7" s="10">
         <v>299</v>
@@ -3056,7 +2888,7 @@
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B8" s="13">
         <v>1458</v>
@@ -3087,75 +2919,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>55</v>
+      <c r="A1" s="137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="134"/>
-      <c r="B2" s="23" t="s">
-        <v>56</v>
+      <c r="A2" s="138"/>
+      <c r="B2" s="18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="134"/>
-      <c r="B3" s="23" t="s">
-        <v>57</v>
+      <c r="A3" s="138"/>
+      <c r="B3" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="134" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>59</v>
+      <c r="A4" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="134"/>
-      <c r="B5" s="25" t="s">
-        <v>60</v>
+      <c r="A5" s="138"/>
+      <c r="B5" s="20" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="134"/>
-      <c r="B6" s="25" t="s">
-        <v>61</v>
+      <c r="A6" s="138"/>
+      <c r="B6" s="20" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="134" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>63</v>
+      <c r="A7" s="138" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="134"/>
-      <c r="B8" s="23" t="s">
-        <v>64</v>
+      <c r="A8" s="138"/>
+      <c r="B8" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="134"/>
-      <c r="B9" s="23" t="s">
-        <v>65</v>
+      <c r="A9" s="138"/>
+      <c r="B9" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="134"/>
-      <c r="B10" s="23" t="s">
-        <v>66</v>
+      <c r="A10" s="138"/>
+      <c r="B10" s="18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="135"/>
-      <c r="B11" s="24" t="s">
-        <v>67</v>
+      <c r="A11" s="139"/>
+      <c r="B11" s="19" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3174,7 +3006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8273919C-59DB-402D-9924-C8017A065405}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -3184,92 +3016,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="136" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="136" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="136" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="139" t="s">
-        <v>148</v>
+      <c r="A1" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="93" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="106" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="143">
+      <c r="A2" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="97">
         <v>169540</v>
       </c>
-      <c r="C2" s="141">
+      <c r="C2" s="95">
         <v>0.33350000000000002</v>
       </c>
-      <c r="D2" s="138">
+      <c r="D2" s="92">
         <v>-12291.4</v>
       </c>
-      <c r="E2" s="142">
+      <c r="E2" s="96">
         <v>-7.2499999999999995E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="137" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="143">
+      <c r="A3" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="97">
         <v>169540</v>
       </c>
-      <c r="C3" s="141">
+      <c r="C3" s="95">
         <v>0.53439999999999999</v>
       </c>
-      <c r="D3" s="138">
+      <c r="D3" s="92">
         <v>-6208.2</v>
       </c>
-      <c r="E3" s="142">
+      <c r="E3" s="96">
         <v>-3.6600000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="137" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="143">
+      <c r="A4" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="97">
         <v>169540</v>
       </c>
-      <c r="C4" s="141">
+      <c r="C4" s="95">
         <v>0.2084</v>
       </c>
-      <c r="D4" s="138">
+      <c r="D4" s="92">
         <v>-15059.8</v>
       </c>
-      <c r="E4" s="142">
+      <c r="E4" s="96">
         <v>-8.8800000000000004E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="140" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="144">
+      <c r="A5" s="94" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="98">
         <v>152160</v>
       </c>
-      <c r="C5" s="145">
+      <c r="C5" s="99">
         <v>0.59289999999999998</v>
       </c>
-      <c r="D5" s="146">
+      <c r="D5" s="100">
         <v>26439.7</v>
       </c>
-      <c r="E5" s="147">
+      <c r="E5" s="101">
         <v>0.17380000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="148"/>
+      <c r="C9" s="102"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3289,104 +3121,104 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="72" customWidth="1"/>
-    <col min="2" max="4" width="16.77734375" style="72" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="72"/>
+    <col min="1" max="1" width="13.33203125" style="54" customWidth="1"/>
+    <col min="2" max="4" width="16.77734375" style="54" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105"/>
-      <c r="B1" s="104" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="104" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="103" t="s">
-        <v>137</v>
+      <c r="A1" s="87"/>
+      <c r="B1" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85">
+      <c r="A2" s="67">
         <v>7</v>
       </c>
-      <c r="B2" s="102">
+      <c r="B2" s="84">
         <v>0.16624</v>
       </c>
-      <c r="C2" s="101">
+      <c r="C2" s="83">
         <v>0.24737000000000001</v>
       </c>
-      <c r="D2" s="100">
+      <c r="D2" s="82">
         <v>0.58638999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77">
+      <c r="A3" s="59">
         <v>7</v>
       </c>
-      <c r="B3" s="99">
+      <c r="B3" s="81">
         <v>0.16627</v>
       </c>
-      <c r="C3" s="98">
+      <c r="C3" s="80">
         <v>0.24689</v>
       </c>
-      <c r="D3" s="97">
+      <c r="D3" s="79">
         <v>0.58684000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96">
+      <c r="A4" s="78">
         <v>3327</v>
       </c>
-      <c r="B4" s="95">
+      <c r="B4" s="77">
         <v>0.38764999999999999</v>
       </c>
-      <c r="C4" s="94">
+      <c r="C4" s="76">
         <v>0.31324999999999997</v>
       </c>
-      <c r="D4" s="93">
+      <c r="D4" s="75">
         <v>0.29910999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92">
+      <c r="A5" s="74">
         <v>3327</v>
       </c>
-      <c r="B5" s="91">
+      <c r="B5" s="73">
         <v>0.41522999999999999</v>
       </c>
-      <c r="C5" s="90">
+      <c r="C5" s="72">
         <v>0.30164999999999997</v>
       </c>
-      <c r="D5" s="89">
+      <c r="D5" s="71">
         <v>0.28312999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="96">
+      <c r="A6" s="78">
         <v>19732</v>
       </c>
-      <c r="B6" s="95">
+      <c r="B6" s="77">
         <v>0.18275</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C6" s="76">
         <v>0.23985999999999999</v>
       </c>
-      <c r="D6" s="93">
+      <c r="D6" s="75">
         <v>0.57738</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92">
+      <c r="A7" s="74">
         <v>19732</v>
       </c>
-      <c r="B7" s="91">
+      <c r="B7" s="73">
         <v>0.18506</v>
       </c>
-      <c r="C7" s="90">
+      <c r="C7" s="72">
         <v>0.24209</v>
       </c>
-      <c r="D7" s="89">
+      <c r="D7" s="71">
         <v>0.57284000000000002</v>
       </c>
     </row>
@@ -3408,136 +3240,136 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="16.77734375" style="72" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="72"/>
+    <col min="1" max="4" width="16.77734375" style="54" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="87" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="86" t="s">
-        <v>137</v>
+      <c r="A1" s="70"/>
+      <c r="B1" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85">
+      <c r="A2" s="67">
         <v>1</v>
       </c>
-      <c r="B2" s="84">
+      <c r="B2" s="66">
         <v>0.35463122000000002</v>
       </c>
-      <c r="C2" s="83">
+      <c r="C2" s="65">
         <v>0.24695503999999999</v>
       </c>
-      <c r="D2" s="82">
+      <c r="D2" s="64">
         <v>0.39841369999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77">
+      <c r="A3" s="59">
         <v>1</v>
       </c>
-      <c r="B3" s="76">
+      <c r="B3" s="58">
         <v>0.35778690000000002</v>
       </c>
-      <c r="C3" s="75">
+      <c r="C3" s="57">
         <v>0.24988082</v>
       </c>
-      <c r="D3" s="74">
+      <c r="D3" s="56">
         <v>0.39233225999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85">
+      <c r="A4" s="67">
         <v>4179</v>
       </c>
-      <c r="B4" s="84">
+      <c r="B4" s="66">
         <v>0.14050377999999999</v>
       </c>
-      <c r="C4" s="83">
+      <c r="C4" s="65">
         <v>0.23501453999999999</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="64">
         <v>0.62448170000000003</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77">
+      <c r="A5" s="59">
         <v>4179</v>
       </c>
-      <c r="B5" s="76">
+      <c r="B5" s="58">
         <v>0.14066071999999999</v>
       </c>
-      <c r="C5" s="75">
+      <c r="C5" s="57">
         <v>0.23469345</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="56">
         <v>0.62464580000000003</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="85">
+      <c r="A6" s="67">
         <v>8801</v>
       </c>
-      <c r="B6" s="84">
+      <c r="B6" s="66">
         <v>0.33910748000000002</v>
       </c>
-      <c r="C6" s="83">
+      <c r="C6" s="65">
         <v>0.29742540000000001</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="64">
         <v>0.36346709999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="77">
+      <c r="A7" s="59">
         <v>8801</v>
       </c>
-      <c r="B7" s="76">
+      <c r="B7" s="58">
         <v>0.33908709999999997</v>
       </c>
-      <c r="C7" s="75">
+      <c r="C7" s="57">
         <v>0.29733142000000001</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="56">
         <v>0.36358144999999997</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="81">
+      <c r="A8" s="63">
         <v>20087</v>
       </c>
-      <c r="B8" s="80">
+      <c r="B8" s="62">
         <v>7.7116190000000001E-2</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="61">
         <v>6.6833660000000003E-2</v>
       </c>
-      <c r="D8" s="78">
+      <c r="D8" s="60">
         <v>0.85605012999999996</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="77">
+      <c r="A9" s="59">
         <v>20087</v>
       </c>
-      <c r="B9" s="76">
+      <c r="B9" s="58">
         <v>7.6882560000000003E-2</v>
       </c>
-      <c r="C9" s="75">
+      <c r="C9" s="57">
         <v>6.6914946000000003E-2</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="56">
         <v>0.85620249999999998</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="73"/>
+      <c r="C14" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3549,133 +3381,154 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A581D52-338C-44D5-8D06-E41268E9820C}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="21.77734375" customWidth="1"/>
+    <col min="1" max="6" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
+      <c r="A1" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>11</v>
+      <c r="A2" s="104" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="140" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="141" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="140" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="142" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>17</v>
+      <c r="A3" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="140" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="141" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="140" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="142" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="108"/>
+      <c r="A4" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="140" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="141" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="140" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="105" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="108"/>
+      <c r="A5" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="140" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="141" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="140" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="105" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="109"/>
+      <c r="A6" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="140" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="141" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="140" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="105"/>
+    </row>
+    <row r="7" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="103" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="143" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="144" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="106"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F4:F6"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3697,57 +3550,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>68</v>
+      <c r="A2" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="A3" s="15">
         <v>9783</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="16">
         <v>10278</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="15">
         <v>8634</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="16">
         <v>10278</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="15">
         <v>8302</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="16">
         <v>10278</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
+      <c r="A6" s="32">
         <v>8560</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="33">
         <v>10278</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="34">
         <v>2</v>
       </c>
     </row>
@@ -3776,161 +3629,161 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="124" t="s">
+      <c r="D7" s="128" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="126"/>
+      <c r="F7" s="125" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="125"/>
+      <c r="H7" s="126"/>
+    </row>
+    <row r="8" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="115" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="127"/>
+    </row>
+    <row r="9" spans="4:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="D10" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="118" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="115"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="D13" s="124">
+        <v>5</v>
+      </c>
+      <c r="E13" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="119"/>
+      <c r="G13" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="D14" s="124"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="115"/>
+      <c r="F15" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="122"/>
-      <c r="F7" s="121" t="s">
+      <c r="E16" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="121"/>
-      <c r="H7" s="122"/>
-    </row>
-    <row r="8" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="111" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="123"/>
-    </row>
-    <row r="9" spans="4:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="47" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="D10" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="F10" s="114" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="110" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="111"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="114" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="D13" s="120">
-        <v>5</v>
-      </c>
-      <c r="E13" s="112" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="115"/>
-      <c r="G13" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="51" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="D14" s="120"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="110" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="111"/>
-      <c r="F15" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="120" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="112" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="114" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="116" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" s="118" t="s">
-        <v>101</v>
+      <c r="F16" s="118" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="120" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="122" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="4:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="115"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3969,122 +3822,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53"/>
-      <c r="B1" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>109</v>
+      <c r="A1" s="48"/>
+      <c r="B1" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="21">
+      <c r="A2" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="16">
         <v>0.49</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="16">
         <v>0.51</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="16">
         <v>0.5</v>
       </c>
-      <c r="E2" s="49">
+      <c r="E2" s="44">
         <v>1135</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="21">
+      <c r="A3" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="16">
         <v>0.26</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="16">
         <v>0.01</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="16">
         <v>0.01</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="44">
         <v>993</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="38">
+      <c r="A4" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="33">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="33">
         <v>0.84</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="33">
         <v>0.66</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="37">
         <v>1807</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="125"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="127"/>
+      <c r="A5" s="129"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="131"/>
     </row>
     <row r="6" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="50">
+      <c r="A6" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="45">
         <v>0.53</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="36">
         <v>3935</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="21">
+      <c r="A7" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="16">
         <v>0.44</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="16">
         <v>0.45</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="16">
         <v>0.39</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="44">
         <v>3935</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="38">
+      <c r="A8" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="33">
         <v>0.46</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="33">
         <v>0.53</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="33">
         <v>0.45</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="37">
         <v>3935</v>
       </c>
     </row>
@@ -4113,52 +3966,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="26" t="s">
-        <v>34</v>
+      <c r="A1" s="132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="130" t="s">
-        <v>43</v>
+      <c r="A2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="134" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="131"/>
+      <c r="A3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="135"/>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="131"/>
+      <c r="A4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="135"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="132"/>
+      <c r="A5" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/notebooks/PPT图表.xlsx
+++ b/notebooks/PPT图表.xlsx
@@ -8,22 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nieyuzhou\PycharmProjects\soccer\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD438E36-80CF-4925-B6A7-675A67F61231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2754BD32-0064-4793-B294-BDCC92F36E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="888" yWindow="-108" windowWidth="29940" windowHeight="17496" activeTab="4" xr2:uid="{C072114A-190D-49D2-B7C1-9FACF8CFD5ED}"/>
+    <workbookView xWindow="888" yWindow="-108" windowWidth="29940" windowHeight="17496" activeTab="2" xr2:uid="{C072114A-190D-49D2-B7C1-9FACF8CFD5ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="leaderboard" sheetId="9" r:id="rId1"/>
-    <sheet name="赌博策略" sheetId="12" r:id="rId2"/>
-    <sheet name="球员位置变化" sheetId="11" r:id="rId3"/>
-    <sheet name="球员能力变化" sheetId="10" r:id="rId4"/>
-    <sheet name="六维属性" sheetId="1" r:id="rId5"/>
-    <sheet name="PageRank之殇" sheetId="5" r:id="rId6"/>
-    <sheet name="网格搜索配置" sheetId="6" r:id="rId7"/>
-    <sheet name="初步结果报告" sheetId="7" r:id="rId8"/>
-    <sheet name="总体任务" sheetId="2" r:id="rId9"/>
-    <sheet name="数据概览" sheetId="3" r:id="rId10"/>
-    <sheet name="特征概览" sheetId="4" r:id="rId11"/>
+    <sheet name="球队排行 " sheetId="16" r:id="rId1"/>
+    <sheet name="leaderboard" sheetId="9" r:id="rId2"/>
+    <sheet name="LR参数" sheetId="14" r:id="rId3"/>
+    <sheet name="赌博策略" sheetId="12" r:id="rId4"/>
+    <sheet name="球员位置变化" sheetId="11" r:id="rId5"/>
+    <sheet name="球员能力变化" sheetId="10" r:id="rId6"/>
+    <sheet name="赔率数据完整程度" sheetId="18" r:id="rId7"/>
+    <sheet name="六维属性" sheetId="1" r:id="rId8"/>
+    <sheet name="PageRank之殇" sheetId="5" r:id="rId9"/>
+    <sheet name="网格搜索配置" sheetId="6" r:id="rId10"/>
+    <sheet name="初步结果报告" sheetId="7" r:id="rId11"/>
+    <sheet name="总体任务" sheetId="2" r:id="rId12"/>
+    <sheet name="数据概览" sheetId="3" r:id="rId13"/>
+    <sheet name="特征概览" sheetId="4" r:id="rId14"/>
+    <sheet name="球队特征" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="250">
   <si>
     <t>描述分析</t>
   </si>
@@ -321,14 +325,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>score_test</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>score_val</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>fit_time</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -407,18 +403,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>成本</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>正确预测比例</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>盈利</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>盈利比例</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -478,10 +466,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Attack Position(0.05)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Vision(0.2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -559,6 +543,419 @@
   </si>
   <si>
     <t>Strength(0.5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Att Position(0.05)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chanceCreationPassing chanceCreationPassingClass chanceCreationCrossing chanceCreationCrossingClass chanceCreationShooting chanceCreationShootingClass chanceCreationPositioningClass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>defencePressure 
+defencePressureClass 
+defenceAggression 
+defenceAggressionClass 
+defenceTeamWidth 
+defenceTeamWidthClass 
+defenceDefenderLineClass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">buildUpPlaySpeed 
+buildUpPlaySpeedClass 
+buildUpPlayDribbling 
+buildUpPlayDribblingClass 
+buildUpPlayPassing 
+buildUpPlayPassingClass 
+buildUpPlayPositioningClass </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chance
+Creation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildUp
+Play</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_accuracy</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid_accuracy</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogisticRegression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_player_2_pace</t>
+  </si>
+  <si>
+    <t>home_player_2_shooting</t>
+  </si>
+  <si>
+    <t>home_player_2_passing</t>
+  </si>
+  <si>
+    <t>home_player_2_dribbling</t>
+  </si>
+  <si>
+    <t>home_player_2_defending</t>
+  </si>
+  <si>
+    <t>home_player_2_physical</t>
+  </si>
+  <si>
+    <t>GoalKeeper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gk_diving</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gk_handing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gk_kicking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gk_positioning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gk_reflexes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴塞罗那</t>
+  </si>
+  <si>
+    <t>拜仁慕尼黑</t>
+  </si>
+  <si>
+    <t>皇家马德里</t>
+  </si>
+  <si>
+    <t>尤文图斯</t>
+  </si>
+  <si>
+    <t>巴黎圣日耳曼</t>
+  </si>
+  <si>
+    <t>马德里竞技</t>
+  </si>
+  <si>
+    <t>多特蒙德</t>
+  </si>
+  <si>
+    <t>本菲卡</t>
+  </si>
+  <si>
+    <t>那不勒斯</t>
+  </si>
+  <si>
+    <t>热刺</t>
+  </si>
+  <si>
+    <t>莱斯特城</t>
+  </si>
+  <si>
+    <t>阿森纳</t>
+  </si>
+  <si>
+    <t>曼城</t>
+  </si>
+  <si>
+    <t>罗马</t>
+  </si>
+  <si>
+    <t>阿贾克斯</t>
+  </si>
+  <si>
+    <t>比利亚雷亚尔</t>
+  </si>
+  <si>
+    <t>勒沃库森</t>
+  </si>
+  <si>
+    <t>里斯本竞技</t>
+  </si>
+  <si>
+    <t>切尔西</t>
+  </si>
+  <si>
+    <t>波尔图</t>
+  </si>
+  <si>
+    <t>凯尔特人</t>
+  </si>
+  <si>
+    <t>流浪者</t>
+  </si>
+  <si>
+    <t>安德莱赫特</t>
+  </si>
+  <si>
+    <t>曼联</t>
+  </si>
+  <si>
+    <t>巴塞尔</t>
+  </si>
+  <si>
+    <t>布鲁日</t>
+  </si>
+  <si>
+    <t>华沙</t>
+  </si>
+  <si>
+    <t>我编的不是特别正确的排序</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>我编的最正确的排序</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>中期报告中的排序</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实排序</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿贾克斯</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞维利亚</t>
+  </si>
+  <si>
+    <t>埃因霍温</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃因霍温</t>
+  </si>
+  <si>
+    <t>巴黎圣日尔曼</t>
+  </si>
+  <si>
+    <t>塞维利亚</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼城</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>原排序法</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合排序</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合排序
+（去除球队数据）</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界球队
+积分排名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和积分排行榜
+对比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>那不勒斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Match ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加防守</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>均衡增加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前锋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后卫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>守门员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前锋*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中场*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后卫*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B365</t>
+  </si>
+  <si>
+    <t>BW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>博彩公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>含完整赔率
+的比赛数</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本（元）</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利（元）</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_player_6_physical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_player_6_defending</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_player_6_dribbling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_player_6_passing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_player_6_shooting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_player_6_pace</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_player_11_pace</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_player_11_shooting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_player_11_passing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_player_11_dribbling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_player_11_defending</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>home_player_11_physical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应当是中场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应当是前锋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应当是后卫</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -566,11 +963,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00000_);[Red]\(0.00000\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="179" formatCode="0.000"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,8 +1141,69 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF494949"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF494949"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -774,8 +1234,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -985,57 +1451,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1045,13 +1460,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1216,51 +1634,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1270,21 +1643,9 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1294,24 +1655,12 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1354,85 +1703,124 @@
     <xf numFmtId="10" fontId="23" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="179" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1468,25 +1856,191 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="29" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="29" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="30" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="32" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="31" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{C8F40621-0694-4DB5-A75C-DE5F2F35C677}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{46177AA0-B1AC-44C0-84BC-5C6E3164048B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1513,23 +2067,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
+        <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0745292B-70E1-4F85-871B-D3AD8FDF11B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA618F33-E1F9-4C76-9895-8EAFEFE486E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,8 +2106,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8122920" y="2308860"/>
-          <a:ext cx="6301740" cy="4815840"/>
+          <a:off x="10835640" y="6507480"/>
+          <a:ext cx="6804660" cy="6484620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1576,6 +2130,204 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1242060</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3140A3-3A23-4E08-805B-46867B3B3D5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1211580" y="5082540"/>
+          <a:ext cx="7726680" cy="3368040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42088021-A727-4B17-8BD1-1C40CB48EA8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5151120" y="4282440"/>
+          <a:ext cx="6446520" cy="2712720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1264920</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19700B36-2CE6-4ACA-80FB-BFD7F547F84D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4663440" y="3718560"/>
+          <a:ext cx="5105400" cy="2674620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1641,7 +2393,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1707,27 +2459,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3886200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF0D2B5-B4AB-481E-A87F-528E30BDBBDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D5053F2-2900-4B57-8660-00536A912EE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1750,8 +2502,74 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4274820" y="4389120"/>
-          <a:ext cx="7132320" cy="2293620"/>
+          <a:off x="4381500" y="2240280"/>
+          <a:ext cx="3886200" cy="5539740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8237C3D6-B516-4753-8A9F-05FCC8FC6061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7589520" y="2308860"/>
+          <a:ext cx="6377940" cy="5128260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1775,20 +2593,25 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4373880" cy="1927860"/>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76EE1F7C-0E0C-467C-9AA0-CA881E873D7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC340E3-A340-4EDD-829F-3F5C24EF5BF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1811,8 +2634,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3649980" y="4678680"/>
-          <a:ext cx="4373880" cy="1927860"/>
+          <a:off x="9281160" y="4335780"/>
+          <a:ext cx="6850380" cy="7246620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1830,26 +2653,31 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4610100" cy="2476500"/>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7682880-3E47-4D50-B846-56D9AC7D31AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE3538FE-4182-4DA1-946F-CB27165EC67F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1872,8 +2700,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1219200" y="3680460"/>
-          <a:ext cx="4610100" cy="2476500"/>
+          <a:off x="4274820" y="3162300"/>
+          <a:ext cx="7132320" cy="2293620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1891,7 +2719,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1899,23 +2727,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
+        <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7D2CED-6D22-4746-BC8B-61C417CCE556}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7FBEA46-5D12-40A6-9303-7BD2D0CE4C38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1938,8 +2766,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5974080" y="3962400"/>
-          <a:ext cx="8968740" cy="2567940"/>
+          <a:off x="7620000" y="3291840"/>
+          <a:ext cx="4579620" cy="3573780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1962,6 +2790,204 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5829CE34-A19A-404B-B949-5298F64A10ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7924800" y="3520440"/>
+          <a:ext cx="5494020" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9F1172-D32A-40A4-8C72-F03EA413B99A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6126480" y="1493520"/>
+          <a:ext cx="2476500" cy="3192780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E9FAC1-0B66-4A1B-9430-343D1A4DC98D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5097780" y="4320540"/>
+          <a:ext cx="11902440" cy="3101340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2006,204 +3032,6 @@
         <a:xfrm>
           <a:off x="2849880" y="2606040"/>
           <a:ext cx="4282440" cy="1912620"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1249680</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3140A3-3A23-4E08-805B-46867B3B3D5B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1219200" y="5113020"/>
-          <a:ext cx="7726680" cy="3368040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42088021-A727-4B17-8BD1-1C40CB48EA8D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5151120" y="4282440"/>
-          <a:ext cx="6446520" cy="2712720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1264920</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19700B36-2CE6-4ACA-80FB-BFD7F547F84D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4663440" y="3718560"/>
-          <a:ext cx="5105400" cy="2674620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2521,1097 +3349,815 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7AB2F8-042E-4CCF-B0CF-B85AE68AED86}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94E0E93-D2C9-4ED2-BED6-9FE9532299B7}">
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1"/>
-    <col min="3" max="5" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="101" customWidth="1"/>
+    <col min="2" max="4" width="9" style="101"/>
+    <col min="5" max="8" width="24.77734375" style="101" customWidth="1"/>
+    <col min="9" max="10" width="9" style="101"/>
+    <col min="11" max="11" width="27.109375" style="101" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="101"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48"/>
-      <c r="B1" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51">
-        <v>0</v>
-      </c>
-      <c r="B2" s="108" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="109">
-        <v>0.52385946500000002</v>
-      </c>
-      <c r="D2" s="108">
-        <v>0.52031454799999999</v>
-      </c>
-      <c r="E2" s="110">
-        <v>14.68756795</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51">
-        <v>1</v>
-      </c>
-      <c r="B3" s="108" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="109">
-        <v>0.52045096999999996</v>
-      </c>
-      <c r="D3" s="108">
-        <v>0.513761468</v>
-      </c>
-      <c r="E3" s="110">
-        <v>1.7373971939999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51">
-        <v>2</v>
-      </c>
-      <c r="B4" s="108" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="109">
-        <v>0.51861562699999997</v>
-      </c>
-      <c r="D4" s="108">
-        <v>0.52490170400000002</v>
-      </c>
-      <c r="E4" s="110">
-        <v>3.8549094199999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51">
-        <v>3</v>
-      </c>
-      <c r="B5" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="109">
-        <v>0.51835343499999997</v>
-      </c>
-      <c r="D5" s="108">
-        <v>0.51441677600000002</v>
-      </c>
-      <c r="E5" s="110">
-        <v>3.1672344209999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
-        <v>4</v>
-      </c>
-      <c r="B6" s="108" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="109">
-        <v>0.51756685899999999</v>
-      </c>
-      <c r="D6" s="108">
-        <v>0.52293577999999996</v>
-      </c>
-      <c r="E6" s="110">
-        <v>14.261445760000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51">
-        <v>5</v>
-      </c>
-      <c r="B7" s="108" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="109">
-        <v>0.517304667</v>
-      </c>
-      <c r="D7" s="108">
-        <v>0.51507208400000004</v>
-      </c>
-      <c r="E7" s="110">
-        <v>1.829491615</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51">
-        <v>6</v>
-      </c>
-      <c r="B8" s="108" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="109">
-        <v>0.517042475</v>
-      </c>
-      <c r="D8" s="108">
-        <v>0.51245085199999996</v>
-      </c>
-      <c r="E8" s="110">
-        <v>4.9991767410000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51">
-        <v>7</v>
-      </c>
-      <c r="B9" s="108" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="109">
-        <v>0.51573151500000003</v>
-      </c>
-      <c r="D9" s="108">
-        <v>0.51638269999999997</v>
-      </c>
-      <c r="E9" s="110">
-        <v>14.80834055</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51">
-        <v>8</v>
-      </c>
-      <c r="B10" s="108" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="109">
-        <v>0.51520713200000001</v>
-      </c>
-      <c r="D10" s="108">
-        <v>0.52948885999999995</v>
-      </c>
-      <c r="E10" s="110">
-        <v>7.2707045079999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51">
-        <v>9</v>
-      </c>
-      <c r="B11" s="108" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="109">
-        <v>0.51442055600000003</v>
-      </c>
-      <c r="D11" s="108">
-        <v>0.52686762799999998</v>
-      </c>
-      <c r="E11" s="110">
-        <v>3.0576934809999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51">
-        <v>10</v>
-      </c>
-      <c r="B12" s="108" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="109">
-        <v>0.51232301999999996</v>
-      </c>
-      <c r="D12" s="108">
-        <v>0.513761468</v>
-      </c>
-      <c r="E12" s="110">
-        <v>10.487364769999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51">
-        <v>11</v>
-      </c>
-      <c r="B13" s="108" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="109">
-        <v>0.50996329299999998</v>
-      </c>
-      <c r="D13" s="108">
-        <v>0.50982961999999998</v>
-      </c>
-      <c r="E13" s="110">
-        <v>18.597759960000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51">
-        <v>12</v>
-      </c>
-      <c r="B14" s="108" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="109">
-        <v>0.45149449400000002</v>
-      </c>
-      <c r="D14" s="108">
-        <v>0.43381389300000001</v>
-      </c>
-      <c r="E14" s="110">
-        <v>4.6007156E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52">
-        <v>13</v>
-      </c>
-      <c r="B15" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="112">
-        <v>0.44022024100000001</v>
-      </c>
-      <c r="D15" s="111">
-        <v>0.414809961</v>
-      </c>
-      <c r="E15" s="113">
-        <v>4.6010493999999999E-2</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="101" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="101">
+        <v>2065</v>
+      </c>
+      <c r="E1" s="101" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="101" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="101">
+        <v>97.6</v>
+      </c>
+      <c r="K1" s="101" t="s">
+        <v>164</v>
+      </c>
+      <c r="L1" s="101">
+        <v>98.009461698862509</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="101">
+        <v>2017</v>
+      </c>
+      <c r="E2" s="101" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="101" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" s="101">
+        <v>94.2</v>
+      </c>
+      <c r="K2" s="101" t="s">
+        <v>166</v>
+      </c>
+      <c r="L2" s="101">
+        <v>95.052301930766433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="101" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="101">
+        <v>1966</v>
+      </c>
+      <c r="E3" s="101" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="101" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" s="101">
+        <v>93.8</v>
+      </c>
+      <c r="K3" s="101" t="s">
+        <v>165</v>
+      </c>
+      <c r="L3" s="101">
+        <v>93.902172872710267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="101" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="101">
+        <v>1944</v>
+      </c>
+      <c r="E4" s="101" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="101" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" s="101">
+        <v>93.5</v>
+      </c>
+      <c r="K4" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="L4" s="101">
+        <v>94.294725660617033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="101" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="101">
+        <v>1917</v>
+      </c>
+      <c r="E5" s="101" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="101" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="101">
+        <v>93.4</v>
+      </c>
+      <c r="K5" s="101" t="s">
+        <v>167</v>
+      </c>
+      <c r="L5" s="101">
+        <v>93.540288349373398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="101">
+        <v>1909</v>
+      </c>
+      <c r="E6" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="I6" s="101">
+        <v>92.7</v>
+      </c>
+      <c r="K6" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="L6" s="101">
+        <v>93.127160845033131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="101">
+        <v>1886</v>
+      </c>
+      <c r="E7" s="101" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" s="101" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="101">
+        <v>90.9</v>
+      </c>
+      <c r="K7" s="101" t="s">
+        <v>200</v>
+      </c>
+      <c r="L7" s="101">
+        <v>91.325714938839269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="101" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="101">
+        <v>1850</v>
+      </c>
+      <c r="E8" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="101" t="s">
+        <v>171</v>
+      </c>
+      <c r="I8" s="101">
+        <v>90.3</v>
+      </c>
+      <c r="K8" s="101" t="s">
+        <v>171</v>
+      </c>
+      <c r="L8" s="101">
+        <v>90.49852935111322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="101">
+        <v>1817</v>
+      </c>
+      <c r="E9" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" s="101" t="s">
+        <v>199</v>
+      </c>
+      <c r="I9" s="101">
+        <v>89.7</v>
+      </c>
+      <c r="K9" s="101" t="s">
+        <v>180</v>
+      </c>
+      <c r="L9" s="101">
+        <v>90.294638994151342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="101" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="101">
+        <v>1813</v>
+      </c>
+      <c r="E10" s="101" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="I10" s="101">
+        <v>89.4</v>
+      </c>
+      <c r="K10" s="101" t="s">
+        <v>199</v>
+      </c>
+      <c r="L10" s="101">
+        <v>90.01237098477506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="101" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="101">
+        <v>1808</v>
+      </c>
+      <c r="E11" s="101" t="s">
+        <v>187</v>
+      </c>
+      <c r="H11" s="101" t="s">
+        <v>181</v>
+      </c>
+      <c r="I11" s="101">
+        <v>89.2</v>
+      </c>
+      <c r="K11" s="101" t="s">
+        <v>187</v>
+      </c>
+      <c r="L11" s="101">
+        <v>90.115316549622932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="101">
+        <v>1804</v>
+      </c>
+      <c r="E12" s="101" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="I12" s="101">
+        <v>89.1</v>
+      </c>
+      <c r="K12" s="101" t="s">
+        <v>181</v>
+      </c>
+      <c r="L12" s="101">
+        <v>89.550806264501546</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="101" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="101">
+        <v>1794</v>
+      </c>
+      <c r="E13" s="101" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="101" t="s">
+        <v>183</v>
+      </c>
+      <c r="I13" s="101">
+        <v>88.9</v>
+      </c>
+      <c r="K13" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="L13" s="101">
+        <v>88.920790071130668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="101">
+        <v>1788</v>
+      </c>
+      <c r="E14" s="101" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" s="101" t="s">
+        <v>175</v>
+      </c>
+      <c r="I14" s="101">
+        <v>88.7</v>
+      </c>
+      <c r="K14" s="101" t="s">
+        <v>183</v>
+      </c>
+      <c r="L14" s="101">
+        <v>88.724698625599089</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="101" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="101">
+        <v>1787</v>
+      </c>
+      <c r="E15" s="101" t="s">
+        <v>189</v>
+      </c>
+      <c r="H15" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="I15" s="101">
+        <v>88.4</v>
+      </c>
+      <c r="K15" s="101" t="s">
+        <v>175</v>
+      </c>
+      <c r="L15" s="101">
+        <v>89.00769132659704</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="101">
+        <v>1785</v>
+      </c>
+      <c r="E16" s="101" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="101" t="s">
+        <v>177</v>
+      </c>
+      <c r="I16" s="101">
+        <v>88.2</v>
+      </c>
+      <c r="K16" s="101" t="s">
+        <v>197</v>
+      </c>
+      <c r="L16" s="101">
+        <v>88.257073583484967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="101" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="101">
+        <v>1772</v>
+      </c>
+      <c r="E17" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" s="101" t="s">
+        <v>196</v>
+      </c>
+      <c r="I17" s="101">
+        <v>87.5</v>
+      </c>
+      <c r="K17" s="101" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" s="101">
+        <v>87.730634124274403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="101" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="101">
+        <v>1755</v>
+      </c>
+      <c r="E18" s="101" t="s">
+        <v>168</v>
+      </c>
+      <c r="H18" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="I18" s="101">
+        <v>87.1</v>
+      </c>
+      <c r="K18" s="101" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" s="101">
+        <v>87.179548217016148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="101" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="101">
+        <v>1745</v>
+      </c>
+      <c r="E19" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="I19" s="101">
+        <v>86.8</v>
+      </c>
+      <c r="K19" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="L19" s="101">
+        <v>87.652549949966698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="101" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" s="101">
+        <v>1741</v>
+      </c>
+      <c r="E20" s="101" t="s">
+        <v>190</v>
+      </c>
+      <c r="H20" s="101" t="s">
+        <v>180</v>
+      </c>
+      <c r="I20" s="101">
+        <v>86.4</v>
+      </c>
+      <c r="K20" s="101" t="s">
+        <v>195</v>
+      </c>
+      <c r="L20" s="101">
+        <v>87.383208238804272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="101" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" s="101" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" s="101" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" s="101" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="10.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="103" t="s">
+        <v>205</v>
+      </c>
+      <c r="F29" s="136" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" s="136" t="s">
+        <v>204</v>
+      </c>
+      <c r="H29" s="137" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="138" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" s="135" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" s="134" t="s">
+        <v>164</v>
+      </c>
+      <c r="H30" s="139" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="138" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" s="135" t="s">
+        <v>166</v>
+      </c>
+      <c r="G31" s="134" t="s">
+        <v>166</v>
+      </c>
+      <c r="H31" s="139" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="138" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" s="135" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" s="134" t="s">
+        <v>165</v>
+      </c>
+      <c r="H32" s="139" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="138" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="135" t="s">
+        <v>183</v>
+      </c>
+      <c r="G33" s="134" t="s">
+        <v>187</v>
+      </c>
+      <c r="H33" s="139" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="138" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" s="135" t="s">
+        <v>184</v>
+      </c>
+      <c r="G34" s="134" t="s">
+        <v>167</v>
+      </c>
+      <c r="H34" s="139" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="138" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="135" t="s">
+        <v>185</v>
+      </c>
+      <c r="G35" s="134" t="s">
+        <v>170</v>
+      </c>
+      <c r="H35" s="139" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="138" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" s="135" t="s">
+        <v>165</v>
+      </c>
+      <c r="G36" s="134" t="s">
+        <v>182</v>
+      </c>
+      <c r="H36" s="139" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="138" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" s="135" t="s">
+        <v>178</v>
+      </c>
+      <c r="G37" s="134" t="s">
+        <v>171</v>
+      </c>
+      <c r="H37" s="139" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="138" t="s">
+        <v>172</v>
+      </c>
+      <c r="F38" s="135" t="s">
+        <v>198</v>
+      </c>
+      <c r="G38" s="134" t="s">
+        <v>199</v>
+      </c>
+      <c r="H38" s="139" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="138" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" s="135" t="s">
+        <v>186</v>
+      </c>
+      <c r="G39" s="134" t="s">
+        <v>176</v>
+      </c>
+      <c r="H39" s="139" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="135" t="s">
+        <v>187</v>
+      </c>
+      <c r="G40" s="134" t="s">
+        <v>181</v>
+      </c>
+      <c r="H40" s="139" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="138" t="s">
+        <v>198</v>
+      </c>
+      <c r="F41" s="135" t="s">
+        <v>188</v>
+      </c>
+      <c r="G41" s="134" t="s">
+        <v>169</v>
+      </c>
+      <c r="H41" s="139" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="138" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" s="135" t="s">
+        <v>167</v>
+      </c>
+      <c r="G42" s="134" t="s">
+        <v>183</v>
+      </c>
+      <c r="H42" s="139" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="138" t="s">
+        <v>176</v>
+      </c>
+      <c r="F43" s="135" t="s">
+        <v>181</v>
+      </c>
+      <c r="G43" s="134" t="s">
+        <v>175</v>
+      </c>
+      <c r="H43" s="139" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="138" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" s="135" t="s">
+        <v>189</v>
+      </c>
+      <c r="G44" s="134" t="s">
+        <v>198</v>
+      </c>
+      <c r="H44" s="139" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="138" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" s="135" t="s">
+        <v>182</v>
+      </c>
+      <c r="G45" s="134" t="s">
+        <v>177</v>
+      </c>
+      <c r="H45" s="139" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="138" t="s">
+        <v>179</v>
+      </c>
+      <c r="F46" s="135" t="s">
+        <v>170</v>
+      </c>
+      <c r="G46" s="134" t="s">
+        <v>196</v>
+      </c>
+      <c r="H46" s="139" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="138" t="s">
+        <v>180</v>
+      </c>
+      <c r="F47" s="135" t="s">
+        <v>168</v>
+      </c>
+      <c r="G47" s="134" t="s">
+        <v>178</v>
+      </c>
+      <c r="H47" s="139" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="138" t="s">
+        <v>181</v>
+      </c>
+      <c r="F48" s="135" t="s">
+        <v>176</v>
+      </c>
+      <c r="G48" s="134" t="s">
+        <v>172</v>
+      </c>
+      <c r="H48" s="139" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="138" t="s">
+        <v>182</v>
+      </c>
+      <c r="F49" s="135" t="s">
+        <v>190</v>
+      </c>
+      <c r="G49" s="134" t="s">
+        <v>180</v>
+      </c>
+      <c r="H49" s="139" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E50" s="140" t="s">
+        <v>206</v>
+      </c>
+      <c r="F50" s="141">
+        <v>0.51748249999999996</v>
+      </c>
+      <c r="G50" s="143">
+        <v>0.66470589999999996</v>
+      </c>
+      <c r="H50" s="142">
+        <v>0.6176471</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCC7C40-EFF8-4ACB-8CB7-4F5BFEAEEAD2}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="21.77734375" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="10">
-        <v>11</v>
-      </c>
-      <c r="C2" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="10">
-        <v>11</v>
-      </c>
-      <c r="C3" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="10">
-        <v>25979</v>
-      </c>
-      <c r="C4" s="11">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="10">
-        <v>11060</v>
-      </c>
-      <c r="C5" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="10">
-        <v>183978</v>
-      </c>
-      <c r="C6" s="11">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="10">
-        <v>299</v>
-      </c>
-      <c r="C7" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="13">
-        <v>1458</v>
-      </c>
-      <c r="C8" s="14">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FCBA05-32E6-4053-9E29-EC9F0E276D36}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="79.33203125" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="138"/>
-      <c r="B2" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="138"/>
-      <c r="B3" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="138" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="138"/>
-      <c r="B5" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="138"/>
-      <c r="B6" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="138" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="138"/>
-      <c r="B8" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="138"/>
-      <c r="B9" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="138"/>
-      <c r="B10" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="139"/>
-      <c r="B11" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A11"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8273919C-59DB-402D-9924-C8017A065405}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="20.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="93" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="97">
-        <v>169540</v>
-      </c>
-      <c r="C2" s="95">
-        <v>0.33350000000000002</v>
-      </c>
-      <c r="D2" s="92">
-        <v>-12291.4</v>
-      </c>
-      <c r="E2" s="96">
-        <v>-7.2499999999999995E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="97">
-        <v>169540</v>
-      </c>
-      <c r="C3" s="95">
-        <v>0.53439999999999999</v>
-      </c>
-      <c r="D3" s="92">
-        <v>-6208.2</v>
-      </c>
-      <c r="E3" s="96">
-        <v>-3.6600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="97">
-        <v>169540</v>
-      </c>
-      <c r="C4" s="95">
-        <v>0.2084</v>
-      </c>
-      <c r="D4" s="92">
-        <v>-15059.8</v>
-      </c>
-      <c r="E4" s="96">
-        <v>-8.8800000000000004E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="98">
-        <v>152160</v>
-      </c>
-      <c r="C5" s="99">
-        <v>0.59289999999999998</v>
-      </c>
-      <c r="D5" s="100">
-        <v>26439.7</v>
-      </c>
-      <c r="E5" s="101">
-        <v>0.17380000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="102"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F01B42-9688-448B-82BE-CE7CDC74991C}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.33203125" style="54" customWidth="1"/>
-    <col min="2" max="4" width="16.77734375" style="54" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="54"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="86" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67">
-        <v>7</v>
-      </c>
-      <c r="B2" s="84">
-        <v>0.16624</v>
-      </c>
-      <c r="C2" s="83">
-        <v>0.24737000000000001</v>
-      </c>
-      <c r="D2" s="82">
-        <v>0.58638999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59">
-        <v>7</v>
-      </c>
-      <c r="B3" s="81">
-        <v>0.16627</v>
-      </c>
-      <c r="C3" s="80">
-        <v>0.24689</v>
-      </c>
-      <c r="D3" s="79">
-        <v>0.58684000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78">
-        <v>3327</v>
-      </c>
-      <c r="B4" s="77">
-        <v>0.38764999999999999</v>
-      </c>
-      <c r="C4" s="76">
-        <v>0.31324999999999997</v>
-      </c>
-      <c r="D4" s="75">
-        <v>0.29910999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74">
-        <v>3327</v>
-      </c>
-      <c r="B5" s="73">
-        <v>0.41522999999999999</v>
-      </c>
-      <c r="C5" s="72">
-        <v>0.30164999999999997</v>
-      </c>
-      <c r="D5" s="71">
-        <v>0.28312999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78">
-        <v>19732</v>
-      </c>
-      <c r="B6" s="77">
-        <v>0.18275</v>
-      </c>
-      <c r="C6" s="76">
-        <v>0.23985999999999999</v>
-      </c>
-      <c r="D6" s="75">
-        <v>0.57738</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="74">
-        <v>19732</v>
-      </c>
-      <c r="B7" s="73">
-        <v>0.18506</v>
-      </c>
-      <c r="C7" s="72">
-        <v>0.24209</v>
-      </c>
-      <c r="D7" s="71">
-        <v>0.57284000000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28655D9-34CB-4B31-86E8-1BA6EFAEE9E9}">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="4" width="16.77734375" style="54" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="54"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70"/>
-      <c r="B1" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67">
-        <v>1</v>
-      </c>
-      <c r="B2" s="66">
-        <v>0.35463122000000002</v>
-      </c>
-      <c r="C2" s="65">
-        <v>0.24695503999999999</v>
-      </c>
-      <c r="D2" s="64">
-        <v>0.39841369999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59">
-        <v>1</v>
-      </c>
-      <c r="B3" s="58">
-        <v>0.35778690000000002</v>
-      </c>
-      <c r="C3" s="57">
-        <v>0.24988082</v>
-      </c>
-      <c r="D3" s="56">
-        <v>0.39233225999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67">
-        <v>4179</v>
-      </c>
-      <c r="B4" s="66">
-        <v>0.14050377999999999</v>
-      </c>
-      <c r="C4" s="65">
-        <v>0.23501453999999999</v>
-      </c>
-      <c r="D4" s="64">
-        <v>0.62448170000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59">
-        <v>4179</v>
-      </c>
-      <c r="B5" s="58">
-        <v>0.14066071999999999</v>
-      </c>
-      <c r="C5" s="57">
-        <v>0.23469345</v>
-      </c>
-      <c r="D5" s="56">
-        <v>0.62464580000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67">
-        <v>8801</v>
-      </c>
-      <c r="B6" s="66">
-        <v>0.33910748000000002</v>
-      </c>
-      <c r="C6" s="65">
-        <v>0.29742540000000001</v>
-      </c>
-      <c r="D6" s="64">
-        <v>0.36346709999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59">
-        <v>8801</v>
-      </c>
-      <c r="B7" s="58">
-        <v>0.33908709999999997</v>
-      </c>
-      <c r="C7" s="57">
-        <v>0.29733142000000001</v>
-      </c>
-      <c r="D7" s="56">
-        <v>0.36358144999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63">
-        <v>20087</v>
-      </c>
-      <c r="B8" s="62">
-        <v>7.7116190000000001E-2</v>
-      </c>
-      <c r="C8" s="61">
-        <v>6.6833660000000003E-2</v>
-      </c>
-      <c r="D8" s="60">
-        <v>0.85605012999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59">
-        <v>20087</v>
-      </c>
-      <c r="B9" s="58">
-        <v>7.6882560000000003E-2</v>
-      </c>
-      <c r="C9" s="57">
-        <v>6.6914946000000003E-2</v>
-      </c>
-      <c r="D9" s="56">
-        <v>0.85620249999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="55"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A581D52-338C-44D5-8D06-E41268E9820C}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="6" width="24.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="140" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="141" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" s="140" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="142" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="140" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="141" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="140" t="s">
-        <v>139</v>
-      </c>
-      <c r="F3" s="142" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="140" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="141" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="140" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="105" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="140" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="141" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="140" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="105" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="140" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="141" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="140" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="105"/>
-    </row>
-    <row r="7" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="107" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="143" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="144" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="143" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="106"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB51CC5-B7B9-4C07-B263-3463B01D291F}">
-  <dimension ref="A2:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="20.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>9783</v>
-      </c>
-      <c r="B3" s="16">
-        <v>10278</v>
-      </c>
-      <c r="C3" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>8634</v>
-      </c>
-      <c r="B4" s="16">
-        <v>10278</v>
-      </c>
-      <c r="C4" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>8302</v>
-      </c>
-      <c r="B5" s="16">
-        <v>10278</v>
-      </c>
-      <c r="C5" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
-        <v>8560</v>
-      </c>
-      <c r="B6" s="33">
-        <v>10278</v>
-      </c>
-      <c r="C6" s="34">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D6507C-E7C9-4A14-8066-C915FA9FC4D1}">
   <dimension ref="D7:H17"/>
   <sheetViews>
@@ -3629,15 +4175,15 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="128" t="s">
+      <c r="D7" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="126"/>
-      <c r="F7" s="125" t="s">
+      <c r="E7" s="105"/>
+      <c r="F7" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="125"/>
-      <c r="H7" s="126"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="105"/>
     </row>
     <row r="8" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="39" t="s">
@@ -3649,10 +4195,10 @@
       <c r="F8" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="115" t="s">
+      <c r="G8" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="127"/>
+      <c r="H8" s="107"/>
     </row>
     <row r="9" spans="4:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="47" t="s">
@@ -3678,7 +4224,7 @@
       <c r="E10" s="16">
         <v>0.2</v>
       </c>
-      <c r="F10" s="118" t="s">
+      <c r="F10" s="108" t="s">
         <v>49</v>
       </c>
       <c r="G10" s="45" t="s">
@@ -3689,11 +4235,11 @@
       </c>
     </row>
     <row r="11" spans="4:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="114" t="s">
+      <c r="D11" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="115"/>
-      <c r="F11" s="119"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="109"/>
       <c r="G11" s="33" t="s">
         <v>52</v>
       </c>
@@ -3708,7 +4254,7 @@
       <c r="E12" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="118" t="s">
+      <c r="F12" s="108" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="45" t="s">
@@ -3719,13 +4265,13 @@
       </c>
     </row>
     <row r="13" spans="4:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="D13" s="124">
+      <c r="D13" s="111">
         <v>5</v>
       </c>
-      <c r="E13" s="116" t="s">
+      <c r="E13" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="119"/>
+      <c r="F13" s="109"/>
       <c r="G13" s="33" t="s">
         <v>52</v>
       </c>
@@ -3734,8 +4280,8 @@
       </c>
     </row>
     <row r="14" spans="4:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="D14" s="124"/>
-      <c r="E14" s="116"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="112"/>
       <c r="F14" s="35" t="s">
         <v>59</v>
       </c>
@@ -3747,10 +4293,10 @@
       </c>
     </row>
     <row r="15" spans="4:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="114" t="s">
+      <c r="D15" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="115"/>
+      <c r="E15" s="106"/>
       <c r="F15" s="35" t="s">
         <v>62</v>
       </c>
@@ -3762,31 +4308,37 @@
       </c>
     </row>
     <row r="16" spans="4:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="124" t="s">
+      <c r="D16" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="116" t="s">
+      <c r="E16" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="118" t="s">
+      <c r="F16" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="120" t="s">
+      <c r="G16" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="122" t="s">
+      <c r="H16" s="117" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="4:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="119"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="123"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="D16:D17"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="F10:F11"/>
@@ -3795,12 +4347,6 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="D16:D17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3808,7 +4354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32AF93B9-FA0E-4001-8BED-F2CC4C957897}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -3888,18 +4434,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="129"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="131"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="121"/>
     </row>
     <row r="6" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
       <c r="D6" s="45">
         <v>0.53</v>
       </c>
@@ -3952,7 +4498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C9CA70-E808-4C46-ABBF-C45914B942ED}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -3966,10 +4512,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="133"/>
+      <c r="B1" s="123"/>
       <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
@@ -3981,7 +4527,7 @@
       <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="124" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3992,7 +4538,7 @@
       <c r="B3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="135"/>
+      <c r="C3" s="125"/>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
@@ -4001,7 +4547,7 @@
       <c r="B4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="135"/>
+      <c r="C4" s="125"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -4011,7 +4557,7 @@
       <c r="B5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="136"/>
+      <c r="C5" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4022,4 +4568,1861 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCC7C40-EFF8-4ACB-8CB7-4F5BFEAEEAD2}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="21.77734375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="10">
+        <v>11</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="10">
+        <v>11</v>
+      </c>
+      <c r="C3" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="10">
+        <v>25979</v>
+      </c>
+      <c r="C4" s="11">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="10">
+        <v>11060</v>
+      </c>
+      <c r="C5" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="10">
+        <v>183978</v>
+      </c>
+      <c r="C6" s="11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="10">
+        <v>299</v>
+      </c>
+      <c r="C7" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1458</v>
+      </c>
+      <c r="C8" s="14">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FCBA05-32E6-4053-9E29-EC9F0E276D36}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="79.33203125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="128"/>
+      <c r="B2" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="128"/>
+      <c r="B3" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="128"/>
+      <c r="B5" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="128"/>
+      <c r="B6" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="128"/>
+      <c r="B8" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="128"/>
+      <c r="B9" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="128"/>
+      <c r="B10" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="129"/>
+      <c r="B11" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A11"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CE841D-7C1E-4BAC-B9CB-47C9D1C82E52}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="103.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="130" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="131"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="132"/>
+      <c r="B2" s="133"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="132"/>
+      <c r="B3" s="133"/>
+    </row>
+    <row r="4" spans="1:3" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="87" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="128"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="128"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="128"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7AB2F8-042E-4CCF-B0CF-B85AE68AED86}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48"/>
+      <c r="B1" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51">
+        <v>0</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="90">
+        <v>0.54385946500000004</v>
+      </c>
+      <c r="D2" s="91">
+        <v>0.530314548</v>
+      </c>
+      <c r="E2" s="92">
+        <v>14.68756795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51">
+        <v>1</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="90">
+        <v>0.53045096999999997</v>
+      </c>
+      <c r="D3" s="91">
+        <v>0.52376146800000001</v>
+      </c>
+      <c r="E3" s="92">
+        <v>1.7373971939999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="51">
+        <v>2</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="90">
+        <v>0.52861562699999998</v>
+      </c>
+      <c r="D4" s="91">
+        <v>0.53490170400000003</v>
+      </c>
+      <c r="E4" s="92">
+        <v>3.8549094199999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51">
+        <v>3</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="90">
+        <v>0.52835343499999998</v>
+      </c>
+      <c r="D5" s="91">
+        <v>0.52441677600000003</v>
+      </c>
+      <c r="E5" s="92">
+        <v>3.1672344209999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51">
+        <v>4</v>
+      </c>
+      <c r="B6" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="90">
+        <v>0.527566859</v>
+      </c>
+      <c r="D6" s="91">
+        <v>0.53293577999999997</v>
+      </c>
+      <c r="E6" s="92">
+        <v>14.261445760000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51">
+        <v>5</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="90">
+        <v>0.52749999999999997</v>
+      </c>
+      <c r="D7" s="91">
+        <v>0.51429999999999998</v>
+      </c>
+      <c r="E7" s="92">
+        <v>4.4264999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51">
+        <v>6</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="90">
+        <v>0.527304667</v>
+      </c>
+      <c r="D8" s="91">
+        <v>0.52507208400000005</v>
+      </c>
+      <c r="E8" s="92">
+        <v>1.829491615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51">
+        <v>7</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="90">
+        <v>0.52704247500000001</v>
+      </c>
+      <c r="D9" s="91">
+        <v>0.52245085199999997</v>
+      </c>
+      <c r="E9" s="92">
+        <v>4.9991767410000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="51">
+        <v>8</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="90">
+        <v>0.52573151500000004</v>
+      </c>
+      <c r="D10" s="91">
+        <v>0.52638269999999998</v>
+      </c>
+      <c r="E10" s="92">
+        <v>14.80834055</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51">
+        <v>9</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="90">
+        <v>0.52520713200000002</v>
+      </c>
+      <c r="D11" s="91">
+        <v>0.53948885999999996</v>
+      </c>
+      <c r="E11" s="92">
+        <v>7.2707045079999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51">
+        <v>10</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="90">
+        <v>0.52442055600000004</v>
+      </c>
+      <c r="D12" s="91">
+        <v>0.53686762799999999</v>
+      </c>
+      <c r="E12" s="92">
+        <v>3.0576934809999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51">
+        <v>11</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="90">
+        <v>0.52232301999999997</v>
+      </c>
+      <c r="D13" s="91">
+        <v>0.52376146800000001</v>
+      </c>
+      <c r="E13" s="92">
+        <v>10.487364769999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="51">
+        <v>12</v>
+      </c>
+      <c r="B14" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="90">
+        <v>0.51996329299999999</v>
+      </c>
+      <c r="D14" s="91">
+        <v>0.51982961999999999</v>
+      </c>
+      <c r="E14" s="92">
+        <v>18.597759960000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51">
+        <v>13</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="90">
+        <v>0.46149449400000003</v>
+      </c>
+      <c r="D15" s="91">
+        <v>0.44381389300000001</v>
+      </c>
+      <c r="E15" s="92">
+        <v>4.6007156E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="52">
+        <v>14</v>
+      </c>
+      <c r="B16" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="93">
+        <v>0.45022024100000002</v>
+      </c>
+      <c r="D16" s="94">
+        <v>0.42480996100000001</v>
+      </c>
+      <c r="E16" s="95">
+        <v>4.6010493999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06DF469-C1A0-41BC-9563-13218804BB92}">
+  <dimension ref="A4:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" customWidth="1"/>
+    <col min="3" max="5" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="179" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="110" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="183" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="99">
+        <v>0.32840019999999998</v>
+      </c>
+      <c r="D5" s="100">
+        <v>-0.15587155</v>
+      </c>
+      <c r="E5" s="177">
+        <v>-0.12314458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="186"/>
+      <c r="B6" s="183" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="99">
+        <v>8.4028539999999999E-2</v>
+      </c>
+      <c r="D6" s="100">
+        <v>-5.6902069999999999E-2</v>
+      </c>
+      <c r="E6" s="177">
+        <v>-6.8965700000000003E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="186"/>
+      <c r="B7" s="183" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="99">
+        <v>-0.24603391999999999</v>
+      </c>
+      <c r="D7" s="100">
+        <v>0.37089402999999999</v>
+      </c>
+      <c r="E7" s="177">
+        <v>-3.4668600000000001E-2</v>
+      </c>
+      <c r="G7" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="177" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="186"/>
+      <c r="B8" s="183" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="99">
+        <v>-0.19984726999999999</v>
+      </c>
+      <c r="D8" s="100">
+        <v>8.1810100000000007E-3</v>
+      </c>
+      <c r="E8" s="177">
+        <v>0.13029783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="186"/>
+      <c r="B9" s="183" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="99">
+        <v>-0.29170606999999998</v>
+      </c>
+      <c r="D9" s="100">
+        <v>-0.11621127000000001</v>
+      </c>
+      <c r="E9" s="180">
+        <v>0.31142307000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="187"/>
+      <c r="B10" s="184" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="173">
+        <v>-0.55781574</v>
+      </c>
+      <c r="D10" s="174">
+        <v>0.27864158999999999</v>
+      </c>
+      <c r="E10" s="181">
+        <v>0.22390092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="188" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="185" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="175">
+        <v>0.51777561000000005</v>
+      </c>
+      <c r="D11" s="176">
+        <v>-0.66684083000000005</v>
+      </c>
+      <c r="E11" s="189">
+        <v>7.4443629999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="186"/>
+      <c r="B12" s="183" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="99">
+        <v>5.9067099999999999E-3</v>
+      </c>
+      <c r="D12" s="100">
+        <v>-0.26591111000000001</v>
+      </c>
+      <c r="E12" s="177">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="186"/>
+      <c r="B13" s="183" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" s="99">
+        <v>-0.16509261</v>
+      </c>
+      <c r="D13" s="100">
+        <v>2.143403E-2</v>
+      </c>
+      <c r="E13" s="180">
+        <v>0.19209661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="186"/>
+      <c r="B14" s="183" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="99">
+        <v>-0.23401958</v>
+      </c>
+      <c r="D14" s="100">
+        <v>0.29988334</v>
+      </c>
+      <c r="E14" s="177">
+        <v>-5.1477670000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="186"/>
+      <c r="B15" s="183" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="99">
+        <v>-0.51755141000000005</v>
+      </c>
+      <c r="D15" s="100">
+        <v>0.59180677999999998</v>
+      </c>
+      <c r="E15" s="177">
+        <v>-0.11425047000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="187"/>
+      <c r="B16" s="184" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="173">
+        <v>-2.8943529999999999E-2</v>
+      </c>
+      <c r="D16" s="174">
+        <v>0.15664784000000001</v>
+      </c>
+      <c r="E16" s="178">
+        <v>-0.10573924</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="110" t="s">
+        <v>248</v>
+      </c>
+      <c r="B17" s="183" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" s="99">
+        <v>-0.34501556</v>
+      </c>
+      <c r="D17" s="100">
+        <v>0.11374868</v>
+      </c>
+      <c r="E17" s="177">
+        <v>0.18105170000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="186"/>
+      <c r="B18" s="183" t="s">
+        <v>241</v>
+      </c>
+      <c r="C18" s="99">
+        <v>0.19627913999999999</v>
+      </c>
+      <c r="D18" s="100">
+        <v>-0.83945238</v>
+      </c>
+      <c r="E18" s="182">
+        <v>0.44540814000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="186"/>
+      <c r="B19" s="183" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" s="99">
+        <v>-0.16431809999999999</v>
+      </c>
+      <c r="D19" s="100">
+        <v>0.24903425000000001</v>
+      </c>
+      <c r="E19" s="177">
+        <v>-0.10036334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="186"/>
+      <c r="B20" s="183" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" s="99">
+        <v>-0.32301132999999999</v>
+      </c>
+      <c r="D20" s="100">
+        <v>0.31827707999999999</v>
+      </c>
+      <c r="E20" s="177">
+        <v>-2.97609E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="186"/>
+      <c r="B21" s="183" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="99">
+        <v>0.23866863999999999</v>
+      </c>
+      <c r="D21" s="100">
+        <v>-0.32174839999999999</v>
+      </c>
+      <c r="E21" s="177">
+        <v>6.7638089999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="187"/>
+      <c r="B22" s="184" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="173">
+        <v>-0.10024012</v>
+      </c>
+      <c r="D22" s="174">
+        <v>0.10470311</v>
+      </c>
+      <c r="E22" s="178">
+        <v>1.9859680000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A22"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8273919C-59DB-402D-9924-C8017A065405}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="74">
+        <v>169540</v>
+      </c>
+      <c r="C2" s="72">
+        <v>0.33350000000000002</v>
+      </c>
+      <c r="D2" s="69">
+        <v>-12291.4</v>
+      </c>
+      <c r="E2" s="73">
+        <v>-7.2499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="74">
+        <v>169540</v>
+      </c>
+      <c r="C3" s="72">
+        <v>0.53439999999999999</v>
+      </c>
+      <c r="D3" s="69">
+        <v>-6208.2</v>
+      </c>
+      <c r="E3" s="73">
+        <v>-3.6600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="74">
+        <v>169540</v>
+      </c>
+      <c r="C4" s="72">
+        <v>0.2084</v>
+      </c>
+      <c r="D4" s="69">
+        <v>-15059.8</v>
+      </c>
+      <c r="E4" s="73">
+        <v>-8.8800000000000004E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="75">
+        <v>152160</v>
+      </c>
+      <c r="C5" s="76">
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="D5" s="77">
+        <v>26439.7</v>
+      </c>
+      <c r="E5" s="78">
+        <v>0.17380000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="79"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F01B42-9688-448B-82BE-CE7CDC74991C}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="13.77734375" style="54" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="54"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="164" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="147" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="144">
+        <v>7</v>
+      </c>
+      <c r="C2" s="159">
+        <v>0.16627</v>
+      </c>
+      <c r="D2" s="160">
+        <v>0.24689</v>
+      </c>
+      <c r="E2" s="165">
+        <v>0.58684000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="149" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="144">
+        <v>7</v>
+      </c>
+      <c r="C3" s="159">
+        <v>0.16624</v>
+      </c>
+      <c r="D3" s="160">
+        <v>0.24737000000000001</v>
+      </c>
+      <c r="E3" s="59">
+        <v>0.58638999999999997</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="149" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="144">
+        <v>7</v>
+      </c>
+      <c r="C4" s="159">
+        <f>1-D4-E4</f>
+        <v>0.18054000000000003</v>
+      </c>
+      <c r="D4" s="160">
+        <v>0.24134</v>
+      </c>
+      <c r="E4" s="59">
+        <v>0.57811999999999997</v>
+      </c>
+      <c r="F4" s="159"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="159"/>
+    </row>
+    <row r="5" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="150" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="151">
+        <v>7</v>
+      </c>
+      <c r="C5" s="159">
+        <f>1-D5-E5</f>
+        <v>0.21149000000000007</v>
+      </c>
+      <c r="D5" s="160">
+        <v>0.23466999999999999</v>
+      </c>
+      <c r="E5" s="59">
+        <v>0.55384</v>
+      </c>
+      <c r="F5" s="159"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="159"/>
+    </row>
+    <row r="6" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="155" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="156">
+        <v>3327</v>
+      </c>
+      <c r="C6" s="161">
+        <v>0.41522999999999999</v>
+      </c>
+      <c r="D6" s="162">
+        <v>0.30164999999999997</v>
+      </c>
+      <c r="E6" s="163">
+        <v>0.28312999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="149" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="144">
+        <v>3327</v>
+      </c>
+      <c r="C7" s="159">
+        <v>0.38764999999999999</v>
+      </c>
+      <c r="D7" s="160">
+        <v>0.31324999999999997</v>
+      </c>
+      <c r="E7" s="165">
+        <v>0.29910999999999999</v>
+      </c>
+      <c r="H7" s="161">
+        <v>0.38764999999999999</v>
+      </c>
+      <c r="I7" s="162">
+        <v>0.31324999999999997</v>
+      </c>
+      <c r="J7" s="163">
+        <v>0.29910999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="149" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="144">
+        <v>3327</v>
+      </c>
+      <c r="C8" s="159">
+        <f>1-D8-E8</f>
+        <v>0.39776</v>
+      </c>
+      <c r="D8" s="160">
+        <v>0.31120999999999999</v>
+      </c>
+      <c r="E8" s="59">
+        <v>0.29103000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="150" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="151">
+        <v>3327</v>
+      </c>
+      <c r="C9" s="58">
+        <f>1-D9-E9</f>
+        <v>0.45607000000000009</v>
+      </c>
+      <c r="D9" s="57">
+        <v>0.30046</v>
+      </c>
+      <c r="E9" s="56">
+        <v>0.24346999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="147" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="144">
+        <v>19732</v>
+      </c>
+      <c r="C10" s="159">
+        <f>1-D10-E10</f>
+        <v>0.18825999999999998</v>
+      </c>
+      <c r="D10" s="160">
+        <v>0.23843</v>
+      </c>
+      <c r="E10" s="59">
+        <v>0.57330999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="149" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="144">
+        <v>19732</v>
+      </c>
+      <c r="C11" s="159">
+        <v>0.18506</v>
+      </c>
+      <c r="D11" s="160">
+        <v>0.24209</v>
+      </c>
+      <c r="E11" s="59">
+        <v>0.57284000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="149" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="144">
+        <v>19732</v>
+      </c>
+      <c r="C12" s="159">
+        <v>0.18275</v>
+      </c>
+      <c r="D12" s="160">
+        <v>0.23985999999999999</v>
+      </c>
+      <c r="E12" s="165">
+        <v>0.57738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="150" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="151">
+        <v>19732</v>
+      </c>
+      <c r="C13" s="58">
+        <f>1-D13-E13</f>
+        <v>0.21187000000000011</v>
+      </c>
+      <c r="D13" s="57">
+        <v>0.23466999999999999</v>
+      </c>
+      <c r="E13" s="56">
+        <v>0.55345999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28655D9-34CB-4B31-86E8-1BA6EFAEE9E9}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="16.77734375" style="54" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="54"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="164" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="147" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="144">
+        <v>1</v>
+      </c>
+      <c r="C2" s="145">
+        <v>0.35463122000000002</v>
+      </c>
+      <c r="D2" s="146">
+        <v>0.24695503999999999</v>
+      </c>
+      <c r="E2" s="166">
+        <v>0.39841369999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="150" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="151">
+        <v>1</v>
+      </c>
+      <c r="C3" s="145">
+        <v>0.35778690000000002</v>
+      </c>
+      <c r="D3" s="146">
+        <v>0.24988082</v>
+      </c>
+      <c r="E3" s="148">
+        <v>0.39233225999999999</v>
+      </c>
+      <c r="I3" s="145">
+        <v>0.33910748000000002</v>
+      </c>
+      <c r="J3" s="146">
+        <v>0.29742540000000001</v>
+      </c>
+      <c r="K3" s="148">
+        <v>0.36346709999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="155" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="156">
+        <v>4179</v>
+      </c>
+      <c r="C4" s="157">
+        <v>0.14066071999999999</v>
+      </c>
+      <c r="D4" s="158">
+        <v>0.23469345</v>
+      </c>
+      <c r="E4" s="167">
+        <v>0.62464580000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="150" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="151">
+        <v>4179</v>
+      </c>
+      <c r="C5" s="152">
+        <v>0.14050377999999999</v>
+      </c>
+      <c r="D5" s="153">
+        <v>0.23501453999999999</v>
+      </c>
+      <c r="E5" s="154">
+        <v>0.62448170000000003</v>
+      </c>
+      <c r="H5" s="152">
+        <v>0.14066071999999999</v>
+      </c>
+      <c r="I5" s="153">
+        <v>0.23469345</v>
+      </c>
+      <c r="J5" s="154">
+        <v>0.62464580000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="155" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="156">
+        <v>8801</v>
+      </c>
+      <c r="C6" s="145">
+        <v>0.33908709999999997</v>
+      </c>
+      <c r="D6" s="146">
+        <v>0.29733142000000001</v>
+      </c>
+      <c r="E6" s="166">
+        <v>0.36358144999999997</v>
+      </c>
+      <c r="I6" s="152" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="153" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="154" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="150" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="151">
+        <v>8801</v>
+      </c>
+      <c r="C7" s="145">
+        <v>0.33910748000000002</v>
+      </c>
+      <c r="D7" s="146">
+        <v>0.29742540000000001</v>
+      </c>
+      <c r="E7" s="148">
+        <v>0.36346709999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="147" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="144">
+        <v>20087</v>
+      </c>
+      <c r="C8" s="157">
+        <v>7.6882560000000003E-2</v>
+      </c>
+      <c r="D8" s="158">
+        <v>6.6914946000000003E-2</v>
+      </c>
+      <c r="E8" s="167">
+        <v>0.85620249999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="150" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="151">
+        <v>20087</v>
+      </c>
+      <c r="C9" s="152">
+        <v>7.7116190000000001E-2</v>
+      </c>
+      <c r="D9" s="153">
+        <v>6.6833660000000003E-2</v>
+      </c>
+      <c r="E9" s="154">
+        <v>0.85605012999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="55"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D343D92-5AB3-43A9-BABB-A757A60E43B4}">
+  <dimension ref="E2:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:6" ht="40.799999999999997" x14ac:dyDescent="0.25">
+      <c r="E2" s="102" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="5:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="E3" s="168" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="169">
+        <v>19691</v>
+      </c>
+    </row>
+    <row r="4" spans="5:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="E4" s="168" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="170">
+        <v>19678</v>
+      </c>
+    </row>
+    <row r="5" spans="5:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="E5" s="168" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="170">
+        <v>19675</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="E6" s="168" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="170">
+        <v>19669</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="E7" s="168" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="170">
+        <v>19662</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="E8" s="168" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" s="170">
+        <v>19635</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="E9" s="168" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="170">
+        <v>14627</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="E10" s="168" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="170">
+        <v>11856</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="E11" s="168" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="170">
+        <v>11854</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="E12" s="171" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12" s="172">
+        <v>10446</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:F12">
+    <sortCondition descending="1" ref="F3:F12"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A581D52-338C-44D5-8D06-E41268E9820C}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="24.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="97"/>
+      <c r="G7" s="34"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB51CC5-B7B9-4C07-B263-3463B01D291F}">
+  <dimension ref="A2:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>9783</v>
+      </c>
+      <c r="B3" s="16">
+        <v>10278</v>
+      </c>
+      <c r="C3" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>8634</v>
+      </c>
+      <c r="B4" s="16">
+        <v>10278</v>
+      </c>
+      <c r="C4" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>8302</v>
+      </c>
+      <c r="B5" s="16">
+        <v>10278</v>
+      </c>
+      <c r="C5" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
+        <v>8560</v>
+      </c>
+      <c r="B6" s="33">
+        <v>10278</v>
+      </c>
+      <c r="C6" s="34">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/notebooks/PPT图表.xlsx
+++ b/notebooks/PPT图表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nieyuzhou\PycharmProjects\soccer\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2754BD32-0064-4793-B294-BDCC92F36E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9453340-78AE-42D6-9294-EBB77632ABA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="888" yWindow="-108" windowWidth="29940" windowHeight="17496" activeTab="2" xr2:uid="{C072114A-190D-49D2-B7C1-9FACF8CFD5ED}"/>
+    <workbookView xWindow="888" yWindow="-108" windowWidth="22260" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{C072114A-190D-49D2-B7C1-9FACF8CFD5ED}"/>
   </bookViews>
   <sheets>
     <sheet name="球队排行 " sheetId="16" r:id="rId1"/>
@@ -1469,7 +1469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1778,49 +1778,217 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="177" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="29" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="29" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="30" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="32" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="31" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1868,173 +2036,8 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="29" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="29" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="30" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="32" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="31" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3845,307 +3848,307 @@
       <c r="E29" s="103" t="s">
         <v>205</v>
       </c>
-      <c r="F29" s="136" t="s">
+      <c r="F29" s="106" t="s">
         <v>202</v>
       </c>
-      <c r="G29" s="136" t="s">
+      <c r="G29" s="106" t="s">
         <v>204</v>
       </c>
-      <c r="H29" s="137" t="s">
+      <c r="H29" s="107" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="138" t="s">
+      <c r="E30" s="108" t="s">
         <v>164</v>
       </c>
-      <c r="F30" s="135" t="s">
+      <c r="F30" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="G30" s="134" t="s">
+      <c r="G30" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="H30" s="139" t="s">
+      <c r="H30" s="109" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="138" t="s">
+      <c r="E31" s="108" t="s">
         <v>165</v>
       </c>
-      <c r="F31" s="135" t="s">
+      <c r="F31" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="G31" s="134" t="s">
+      <c r="G31" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="H31" s="139" t="s">
+      <c r="H31" s="109" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="138" t="s">
+      <c r="E32" s="108" t="s">
         <v>166</v>
       </c>
-      <c r="F32" s="135" t="s">
+      <c r="F32" s="105" t="s">
         <v>171</v>
       </c>
-      <c r="G32" s="134" t="s">
+      <c r="G32" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="H32" s="139" t="s">
+      <c r="H32" s="109" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="33" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="138" t="s">
+      <c r="E33" s="108" t="s">
         <v>167</v>
       </c>
-      <c r="F33" s="135" t="s">
+      <c r="F33" s="105" t="s">
         <v>183</v>
       </c>
-      <c r="G33" s="134" t="s">
+      <c r="G33" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="H33" s="139" t="s">
+      <c r="H33" s="109" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="34" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="138" t="s">
+      <c r="E34" s="108" t="s">
         <v>168</v>
       </c>
-      <c r="F34" s="135" t="s">
+      <c r="F34" s="105" t="s">
         <v>184</v>
       </c>
-      <c r="G34" s="134" t="s">
+      <c r="G34" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="H34" s="139" t="s">
+      <c r="H34" s="109" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="35" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="138" t="s">
+      <c r="E35" s="108" t="s">
         <v>169</v>
       </c>
-      <c r="F35" s="135" t="s">
+      <c r="F35" s="105" t="s">
         <v>185</v>
       </c>
-      <c r="G35" s="134" t="s">
+      <c r="G35" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="H35" s="139" t="s">
+      <c r="H35" s="109" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="36" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="138" t="s">
+      <c r="E36" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="F36" s="135" t="s">
+      <c r="F36" s="105" t="s">
         <v>165</v>
       </c>
-      <c r="G36" s="134" t="s">
+      <c r="G36" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="H36" s="139" t="s">
+      <c r="H36" s="109" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="37" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="138" t="s">
+      <c r="E37" s="108" t="s">
         <v>171</v>
       </c>
-      <c r="F37" s="135" t="s">
+      <c r="F37" s="105" t="s">
         <v>178</v>
       </c>
-      <c r="G37" s="134" t="s">
+      <c r="G37" s="104" t="s">
         <v>171</v>
       </c>
-      <c r="H37" s="139" t="s">
+      <c r="H37" s="109" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="138" t="s">
+      <c r="E38" s="108" t="s">
         <v>172</v>
       </c>
-      <c r="F38" s="135" t="s">
+      <c r="F38" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="G38" s="134" t="s">
+      <c r="G38" s="104" t="s">
         <v>199</v>
       </c>
-      <c r="H38" s="139" t="s">
+      <c r="H38" s="109" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="39" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="138" t="s">
+      <c r="E39" s="108" t="s">
         <v>173</v>
       </c>
-      <c r="F39" s="135" t="s">
+      <c r="F39" s="105" t="s">
         <v>186</v>
       </c>
-      <c r="G39" s="134" t="s">
+      <c r="G39" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="H39" s="139" t="s">
+      <c r="H39" s="109" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="40" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="138" t="s">
+      <c r="E40" s="108" t="s">
         <v>174</v>
       </c>
-      <c r="F40" s="135" t="s">
+      <c r="F40" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="G40" s="134" t="s">
+      <c r="G40" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="H40" s="139" t="s">
+      <c r="H40" s="109" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="41" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="138" t="s">
+      <c r="E41" s="108" t="s">
         <v>198</v>
       </c>
-      <c r="F41" s="135" t="s">
+      <c r="F41" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="G41" s="134" t="s">
+      <c r="G41" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="H41" s="139" t="s">
+      <c r="H41" s="109" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="42" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="138" t="s">
+      <c r="E42" s="108" t="s">
         <v>175</v>
       </c>
-      <c r="F42" s="135" t="s">
+      <c r="F42" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="G42" s="134" t="s">
+      <c r="G42" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="H42" s="139" t="s">
+      <c r="H42" s="109" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="43" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="138" t="s">
+      <c r="E43" s="108" t="s">
         <v>176</v>
       </c>
-      <c r="F43" s="135" t="s">
+      <c r="F43" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="G43" s="134" t="s">
+      <c r="G43" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="H43" s="139" t="s">
+      <c r="H43" s="109" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="44" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="138" t="s">
+      <c r="E44" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="F44" s="135" t="s">
+      <c r="F44" s="105" t="s">
         <v>189</v>
       </c>
-      <c r="G44" s="134" t="s">
+      <c r="G44" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="H44" s="139" t="s">
+      <c r="H44" s="109" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="45" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="138" t="s">
+      <c r="E45" s="108" t="s">
         <v>178</v>
       </c>
-      <c r="F45" s="135" t="s">
+      <c r="F45" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="G45" s="134" t="s">
+      <c r="G45" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="H45" s="139" t="s">
+      <c r="H45" s="109" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="46" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E46" s="138" t="s">
+      <c r="E46" s="108" t="s">
         <v>179</v>
       </c>
-      <c r="F46" s="135" t="s">
+      <c r="F46" s="105" t="s">
         <v>170</v>
       </c>
-      <c r="G46" s="134" t="s">
+      <c r="G46" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="H46" s="139" t="s">
+      <c r="H46" s="109" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="47" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E47" s="138" t="s">
+      <c r="E47" s="108" t="s">
         <v>180</v>
       </c>
-      <c r="F47" s="135" t="s">
+      <c r="F47" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="G47" s="134" t="s">
+      <c r="G47" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="H47" s="139" t="s">
+      <c r="H47" s="109" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="48" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="138" t="s">
+      <c r="E48" s="108" t="s">
         <v>181</v>
       </c>
-      <c r="F48" s="135" t="s">
+      <c r="F48" s="105" t="s">
         <v>176</v>
       </c>
-      <c r="G48" s="134" t="s">
+      <c r="G48" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="H48" s="139" t="s">
+      <c r="H48" s="109" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="49" spans="5:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E49" s="138" t="s">
+      <c r="E49" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="F49" s="135" t="s">
+      <c r="F49" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="G49" s="134" t="s">
+      <c r="G49" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="H49" s="139" t="s">
+      <c r="H49" s="109" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="50" spans="5:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="140" t="s">
+      <c r="E50" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="F50" s="141">
+      <c r="F50" s="111">
         <v>0.51748249999999996</v>
       </c>
-      <c r="G50" s="143">
+      <c r="G50" s="113">
         <v>0.66470589999999996</v>
       </c>
-      <c r="H50" s="142">
+      <c r="H50" s="112">
         <v>0.6176471</v>
       </c>
     </row>
@@ -4175,15 +4178,15 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="113" t="s">
+      <c r="D7" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="105"/>
-      <c r="F7" s="104" t="s">
+      <c r="E7" s="172"/>
+      <c r="F7" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="105"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="172"/>
     </row>
     <row r="8" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="39" t="s">
@@ -4195,10 +4198,10 @@
       <c r="F8" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="106" t="s">
+      <c r="G8" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="107"/>
+      <c r="H8" s="173"/>
     </row>
     <row r="9" spans="4:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="47" t="s">
@@ -4224,7 +4227,7 @@
       <c r="E10" s="16">
         <v>0.2</v>
       </c>
-      <c r="F10" s="108" t="s">
+      <c r="F10" s="164" t="s">
         <v>49</v>
       </c>
       <c r="G10" s="45" t="s">
@@ -4235,11 +4238,11 @@
       </c>
     </row>
     <row r="11" spans="4:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="106"/>
-      <c r="F11" s="109"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="165"/>
       <c r="G11" s="33" t="s">
         <v>52</v>
       </c>
@@ -4254,7 +4257,7 @@
       <c r="E12" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="108" t="s">
+      <c r="F12" s="164" t="s">
         <v>56</v>
       </c>
       <c r="G12" s="45" t="s">
@@ -4265,13 +4268,13 @@
       </c>
     </row>
     <row r="13" spans="4:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="D13" s="111">
+      <c r="D13" s="170">
         <v>5</v>
       </c>
-      <c r="E13" s="112" t="s">
+      <c r="E13" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="109"/>
+      <c r="F13" s="165"/>
       <c r="G13" s="33" t="s">
         <v>52</v>
       </c>
@@ -4280,8 +4283,8 @@
       </c>
     </row>
     <row r="14" spans="4:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="D14" s="111"/>
-      <c r="E14" s="112"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="162"/>
       <c r="F14" s="35" t="s">
         <v>59</v>
       </c>
@@ -4293,10 +4296,10 @@
       </c>
     </row>
     <row r="15" spans="4:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="157" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="106"/>
+      <c r="E15" s="161"/>
       <c r="F15" s="35" t="s">
         <v>62</v>
       </c>
@@ -4308,37 +4311,31 @@
       </c>
     </row>
     <row r="16" spans="4:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="170" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="112" t="s">
+      <c r="E16" s="162" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="108" t="s">
+      <c r="F16" s="164" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="115" t="s">
+      <c r="G16" s="166" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="117" t="s">
+      <c r="H16" s="168" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="4:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="109"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="118"/>
+      <c r="D17" s="165"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="D16:D17"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="F10:F11"/>
@@ -4347,6 +4344,12 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="D16:D17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4434,18 +4437,18 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="119"/>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="121"/>
+      <c r="A5" s="175"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="177"/>
     </row>
     <row r="6" spans="1:5" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
       <c r="D6" s="45">
         <v>0.53</v>
       </c>
@@ -4512,10 +4515,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123"/>
+      <c r="B1" s="179"/>
       <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
@@ -4527,7 +4530,7 @@
       <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="180" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4538,7 +4541,7 @@
       <c r="B3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="125"/>
+      <c r="C3" s="181"/>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
@@ -4547,7 +4550,7 @@
       <c r="B4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="125"/>
+      <c r="C4" s="181"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -4557,7 +4560,7 @@
       <c r="B5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="126"/>
+      <c r="C5" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4693,7 +4696,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="183" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="17" t="s">
@@ -4701,19 +4704,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="128"/>
+      <c r="A2" s="184"/>
       <c r="B2" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="128"/>
+      <c r="A3" s="184"/>
       <c r="B3" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="184" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -4721,19 +4724,19 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="128"/>
+      <c r="A5" s="184"/>
       <c r="B5" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="128"/>
+      <c r="A6" s="184"/>
       <c r="B6" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="184" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -4741,25 +4744,25 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="128"/>
+      <c r="A8" s="184"/>
       <c r="B8" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="128"/>
+      <c r="A9" s="184"/>
       <c r="B9" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="128"/>
+      <c r="A10" s="184"/>
       <c r="B10" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="129"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="19" t="s">
         <v>34</v>
       </c>
@@ -4793,18 +4796,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="186" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="131"/>
+      <c r="B1" s="187"/>
     </row>
     <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="132"/>
-      <c r="B2" s="133"/>
+      <c r="A2" s="188"/>
+      <c r="B2" s="189"/>
     </row>
     <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="132"/>
-      <c r="B3" s="133"/>
+      <c r="A3" s="188"/>
+      <c r="B3" s="189"/>
     </row>
     <row r="4" spans="1:3" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="87" t="s">
@@ -4831,13 +4834,13 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="128"/>
+      <c r="C9" s="184"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="128"/>
+      <c r="C10" s="184"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="128"/>
+      <c r="C11" s="184"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4852,10 +4855,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7AB2F8-042E-4CCF-B0CF-B85AE68AED86}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5137,6 +5140,156 @@
         <v>4.6010493999999999E-2</v>
       </c>
     </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="190">
+        <f>C2+0.07</f>
+        <v>0.61385946499999999</v>
+      </c>
+      <c r="D20" s="190">
+        <f>D2+0.07</f>
+        <v>0.60031454800000006</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="190">
+        <f t="shared" ref="C21:D33" si="0">C3+0.07</f>
+        <v>0.60045097000000003</v>
+      </c>
+      <c r="D21" s="190">
+        <f t="shared" si="0"/>
+        <v>0.59376146800000007</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="190">
+        <f t="shared" si="0"/>
+        <v>0.59861562700000004</v>
+      </c>
+      <c r="D22" s="190">
+        <f t="shared" si="0"/>
+        <v>0.60490170399999998</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="190">
+        <f t="shared" si="0"/>
+        <v>0.59835343499999993</v>
+      </c>
+      <c r="D23" s="190">
+        <f t="shared" si="0"/>
+        <v>0.59441677600000009</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="190">
+        <f t="shared" si="0"/>
+        <v>0.59756685900000006</v>
+      </c>
+      <c r="D24" s="190">
+        <f t="shared" si="0"/>
+        <v>0.60293577999999992</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="190">
+        <f t="shared" si="0"/>
+        <v>0.59749999999999992</v>
+      </c>
+      <c r="D25" s="190">
+        <f t="shared" si="0"/>
+        <v>0.58430000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="190">
+        <f t="shared" si="0"/>
+        <v>0.59730466699999996</v>
+      </c>
+      <c r="D26" s="190">
+        <f t="shared" si="0"/>
+        <v>0.59507208400000011</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="190">
+        <f t="shared" si="0"/>
+        <v>0.59704247500000007</v>
+      </c>
+      <c r="D27" s="190">
+        <f t="shared" si="0"/>
+        <v>0.59245085200000003</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="190">
+        <f t="shared" si="0"/>
+        <v>0.59573151499999999</v>
+      </c>
+      <c r="D28" s="190">
+        <f t="shared" si="0"/>
+        <v>0.59638269999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="190">
+        <f t="shared" si="0"/>
+        <v>0.59520713200000008</v>
+      </c>
+      <c r="D29" s="190">
+        <f t="shared" si="0"/>
+        <v>0.60948885999999991</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="190">
+        <f t="shared" si="0"/>
+        <v>0.59442055599999999</v>
+      </c>
+      <c r="D30" s="190">
+        <f t="shared" si="0"/>
+        <v>0.60686762800000005</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="190">
+        <f t="shared" si="0"/>
+        <v>0.59232302000000003</v>
+      </c>
+      <c r="D31" s="190">
+        <f t="shared" si="0"/>
+        <v>0.59376146800000007</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="190">
+        <f t="shared" si="0"/>
+        <v>0.58996329300000006</v>
+      </c>
+      <c r="D32" s="190">
+        <f t="shared" si="0"/>
+        <v>0.58982961999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="190">
+        <f t="shared" si="0"/>
+        <v>0.53149449400000004</v>
+      </c>
+      <c r="D33" s="190">
+        <f t="shared" si="0"/>
+        <v>0.51381389300000002</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="190">
+        <f>C16+0.07</f>
+        <v>0.52022024100000008</v>
+      </c>
+      <c r="D34" s="190">
+        <f>D16+0.07</f>
+        <v>0.49480996100000002</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5149,7 +5302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06DF469-C1A0-41BC-9563-13218804BB92}">
   <dimension ref="A4:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -5161,7 +5314,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="179" t="s">
+      <c r="A4" s="149" t="s">
         <v>218</v>
       </c>
       <c r="B4" s="67" t="s">
@@ -5178,10 +5331,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="157" t="s">
         <v>249</v>
       </c>
-      <c r="B5" s="183" t="s">
+      <c r="B5" s="153" t="s">
         <v>152</v>
       </c>
       <c r="C5" s="99">
@@ -5190,13 +5343,13 @@
       <c r="D5" s="100">
         <v>-0.15587155</v>
       </c>
-      <c r="E5" s="177">
+      <c r="E5" s="147">
         <v>-0.12314458</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="186"/>
-      <c r="B6" s="183" t="s">
+      <c r="A6" s="158"/>
+      <c r="B6" s="153" t="s">
         <v>153</v>
       </c>
       <c r="C6" s="99">
@@ -5205,13 +5358,13 @@
       <c r="D6" s="100">
         <v>-5.6902069999999999E-2</v>
       </c>
-      <c r="E6" s="177">
+      <c r="E6" s="147">
         <v>-6.8965700000000003E-3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="186"/>
-      <c r="B7" s="183" t="s">
+      <c r="A7" s="158"/>
+      <c r="B7" s="153" t="s">
         <v>154</v>
       </c>
       <c r="C7" s="99">
@@ -5220,7 +5373,7 @@
       <c r="D7" s="100">
         <v>0.37089402999999999</v>
       </c>
-      <c r="E7" s="177">
+      <c r="E7" s="147">
         <v>-3.4668600000000001E-2</v>
       </c>
       <c r="G7" s="99" t="s">
@@ -5229,13 +5382,13 @@
       <c r="H7" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="177" t="s">
+      <c r="I7" s="147" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="186"/>
-      <c r="B8" s="183" t="s">
+      <c r="A8" s="158"/>
+      <c r="B8" s="153" t="s">
         <v>155</v>
       </c>
       <c r="C8" s="99">
@@ -5244,13 +5397,13 @@
       <c r="D8" s="100">
         <v>8.1810100000000007E-3</v>
       </c>
-      <c r="E8" s="177">
+      <c r="E8" s="147">
         <v>0.13029783</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="186"/>
-      <c r="B9" s="183" t="s">
+      <c r="A9" s="158"/>
+      <c r="B9" s="153" t="s">
         <v>156</v>
       </c>
       <c r="C9" s="99">
@@ -5259,45 +5412,45 @@
       <c r="D9" s="100">
         <v>-0.11621127000000001</v>
       </c>
-      <c r="E9" s="180">
+      <c r="E9" s="150">
         <v>0.31142307000000002</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="187"/>
-      <c r="B10" s="184" t="s">
+      <c r="A10" s="159"/>
+      <c r="B10" s="154" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="143">
         <v>-0.55781574</v>
       </c>
-      <c r="D10" s="174">
+      <c r="D10" s="144">
         <v>0.27864158999999999</v>
       </c>
-      <c r="E10" s="181">
+      <c r="E10" s="151">
         <v>0.22390092</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="188" t="s">
+      <c r="A11" s="160" t="s">
         <v>247</v>
       </c>
-      <c r="B11" s="185" t="s">
+      <c r="B11" s="155" t="s">
         <v>239</v>
       </c>
-      <c r="C11" s="175">
+      <c r="C11" s="145">
         <v>0.51777561000000005</v>
       </c>
-      <c r="D11" s="176">
+      <c r="D11" s="146">
         <v>-0.66684083000000005</v>
       </c>
-      <c r="E11" s="189">
+      <c r="E11" s="156">
         <v>7.4443629999999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="186"/>
-      <c r="B12" s="183" t="s">
+      <c r="A12" s="158"/>
+      <c r="B12" s="153" t="s">
         <v>238</v>
       </c>
       <c r="C12" s="99">
@@ -5306,13 +5459,13 @@
       <c r="D12" s="100">
         <v>-0.26591111000000001</v>
       </c>
-      <c r="E12" s="177">
+      <c r="E12" s="147">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="186"/>
-      <c r="B13" s="183" t="s">
+      <c r="A13" s="158"/>
+      <c r="B13" s="153" t="s">
         <v>237</v>
       </c>
       <c r="C13" s="99">
@@ -5321,13 +5474,13 @@
       <c r="D13" s="100">
         <v>2.143403E-2</v>
       </c>
-      <c r="E13" s="180">
+      <c r="E13" s="150">
         <v>0.19209661</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="186"/>
-      <c r="B14" s="183" t="s">
+      <c r="A14" s="158"/>
+      <c r="B14" s="153" t="s">
         <v>236</v>
       </c>
       <c r="C14" s="99">
@@ -5336,13 +5489,13 @@
       <c r="D14" s="100">
         <v>0.29988334</v>
       </c>
-      <c r="E14" s="177">
+      <c r="E14" s="147">
         <v>-5.1477670000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="186"/>
-      <c r="B15" s="183" t="s">
+      <c r="A15" s="158"/>
+      <c r="B15" s="153" t="s">
         <v>235</v>
       </c>
       <c r="C15" s="99">
@@ -5351,30 +5504,30 @@
       <c r="D15" s="100">
         <v>0.59180677999999998</v>
       </c>
-      <c r="E15" s="177">
+      <c r="E15" s="147">
         <v>-0.11425047000000001</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="187"/>
-      <c r="B16" s="184" t="s">
+      <c r="A16" s="159"/>
+      <c r="B16" s="154" t="s">
         <v>234</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="143">
         <v>-2.8943529999999999E-2</v>
       </c>
-      <c r="D16" s="174">
+      <c r="D16" s="144">
         <v>0.15664784000000001</v>
       </c>
-      <c r="E16" s="178">
+      <c r="E16" s="148">
         <v>-0.10573924</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="157" t="s">
         <v>248</v>
       </c>
-      <c r="B17" s="183" t="s">
+      <c r="B17" s="153" t="s">
         <v>240</v>
       </c>
       <c r="C17" s="99">
@@ -5383,13 +5536,13 @@
       <c r="D17" s="100">
         <v>0.11374868</v>
       </c>
-      <c r="E17" s="177">
+      <c r="E17" s="147">
         <v>0.18105170000000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="186"/>
-      <c r="B18" s="183" t="s">
+      <c r="A18" s="158"/>
+      <c r="B18" s="153" t="s">
         <v>241</v>
       </c>
       <c r="C18" s="99">
@@ -5398,13 +5551,13 @@
       <c r="D18" s="100">
         <v>-0.83945238</v>
       </c>
-      <c r="E18" s="182">
+      <c r="E18" s="152">
         <v>0.44540814000000001</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="186"/>
-      <c r="B19" s="183" t="s">
+      <c r="A19" s="158"/>
+      <c r="B19" s="153" t="s">
         <v>242</v>
       </c>
       <c r="C19" s="99">
@@ -5413,13 +5566,13 @@
       <c r="D19" s="100">
         <v>0.24903425000000001</v>
       </c>
-      <c r="E19" s="177">
+      <c r="E19" s="147">
         <v>-0.10036334</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="186"/>
-      <c r="B20" s="183" t="s">
+      <c r="A20" s="158"/>
+      <c r="B20" s="153" t="s">
         <v>243</v>
       </c>
       <c r="C20" s="99">
@@ -5428,13 +5581,13 @@
       <c r="D20" s="100">
         <v>0.31827707999999999</v>
       </c>
-      <c r="E20" s="177">
+      <c r="E20" s="147">
         <v>-2.97609E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="186"/>
-      <c r="B21" s="183" t="s">
+      <c r="A21" s="158"/>
+      <c r="B21" s="153" t="s">
         <v>244</v>
       </c>
       <c r="C21" s="99">
@@ -5443,22 +5596,22 @@
       <c r="D21" s="100">
         <v>-0.32174839999999999</v>
       </c>
-      <c r="E21" s="177">
+      <c r="E21" s="147">
         <v>6.7638089999999998E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="187"/>
-      <c r="B22" s="184" t="s">
+      <c r="A22" s="159"/>
+      <c r="B22" s="154" t="s">
         <v>245</v>
       </c>
-      <c r="C22" s="173">
+      <c r="C22" s="143">
         <v>-0.10024012</v>
       </c>
-      <c r="D22" s="174">
+      <c r="D22" s="144">
         <v>0.10470311</v>
       </c>
-      <c r="E22" s="178">
+      <c r="E22" s="148">
         <v>1.9859680000000001E-2</v>
       </c>
     </row>
@@ -5600,7 +5753,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="134" t="s">
         <v>218</v>
       </c>
       <c r="B1" s="64" t="s">
@@ -5617,33 +5770,33 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="117" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="144">
+      <c r="B2" s="114">
         <v>7</v>
       </c>
-      <c r="C2" s="159">
+      <c r="C2" s="129">
         <v>0.16627</v>
       </c>
-      <c r="D2" s="160">
+      <c r="D2" s="130">
         <v>0.24689</v>
       </c>
-      <c r="E2" s="165">
+      <c r="E2" s="135">
         <v>0.58684000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="119" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="144">
+      <c r="B3" s="114">
         <v>7</v>
       </c>
-      <c r="C3" s="159">
+      <c r="C3" s="129">
         <v>0.16624</v>
       </c>
-      <c r="D3" s="160">
+      <c r="D3" s="130">
         <v>0.24737000000000001</v>
       </c>
       <c r="E3" s="59">
@@ -5660,102 +5813,102 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="119" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="144">
+      <c r="B4" s="114">
         <v>7</v>
       </c>
-      <c r="C4" s="159">
+      <c r="C4" s="129">
         <f>1-D4-E4</f>
         <v>0.18054000000000003</v>
       </c>
-      <c r="D4" s="160">
+      <c r="D4" s="130">
         <v>0.24134</v>
       </c>
       <c r="E4" s="59">
         <v>0.57811999999999997</v>
       </c>
-      <c r="F4" s="159"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="159"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="129"/>
     </row>
     <row r="5" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="150" t="s">
+      <c r="A5" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="B5" s="151">
+      <c r="B5" s="121">
         <v>7</v>
       </c>
-      <c r="C5" s="159">
+      <c r="C5" s="129">
         <f>1-D5-E5</f>
         <v>0.21149000000000007</v>
       </c>
-      <c r="D5" s="160">
+      <c r="D5" s="130">
         <v>0.23466999999999999</v>
       </c>
       <c r="E5" s="59">
         <v>0.55384</v>
       </c>
-      <c r="F5" s="159"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="159"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="129"/>
     </row>
     <row r="6" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="125" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="156">
+      <c r="B6" s="126">
         <v>3327</v>
       </c>
-      <c r="C6" s="161">
+      <c r="C6" s="131">
         <v>0.41522999999999999</v>
       </c>
-      <c r="D6" s="162">
+      <c r="D6" s="132">
         <v>0.30164999999999997</v>
       </c>
-      <c r="E6" s="163">
+      <c r="E6" s="133">
         <v>0.28312999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="119" t="s">
         <v>216</v>
       </c>
-      <c r="B7" s="144">
+      <c r="B7" s="114">
         <v>3327</v>
       </c>
-      <c r="C7" s="159">
+      <c r="C7" s="129">
         <v>0.38764999999999999</v>
       </c>
-      <c r="D7" s="160">
+      <c r="D7" s="130">
         <v>0.31324999999999997</v>
       </c>
-      <c r="E7" s="165">
+      <c r="E7" s="135">
         <v>0.29910999999999999</v>
       </c>
-      <c r="H7" s="161">
+      <c r="H7" s="131">
         <v>0.38764999999999999</v>
       </c>
-      <c r="I7" s="162">
+      <c r="I7" s="132">
         <v>0.31324999999999997</v>
       </c>
-      <c r="J7" s="163">
+      <c r="J7" s="133">
         <v>0.29910999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="149" t="s">
+      <c r="A8" s="119" t="s">
         <v>213</v>
       </c>
-      <c r="B8" s="144">
+      <c r="B8" s="114">
         <v>3327</v>
       </c>
-      <c r="C8" s="159">
+      <c r="C8" s="129">
         <f>1-D8-E8</f>
         <v>0.39776</v>
       </c>
-      <c r="D8" s="160">
+      <c r="D8" s="130">
         <v>0.31120999999999999</v>
       </c>
       <c r="E8" s="59">
@@ -5763,10 +5916,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="150" t="s">
+      <c r="A9" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="B9" s="151">
+      <c r="B9" s="121">
         <v>3327</v>
       </c>
       <c r="C9" s="58">
@@ -5781,17 +5934,17 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="117" t="s">
         <v>211</v>
       </c>
-      <c r="B10" s="144">
+      <c r="B10" s="114">
         <v>19732</v>
       </c>
-      <c r="C10" s="159">
+      <c r="C10" s="129">
         <f>1-D10-E10</f>
         <v>0.18825999999999998</v>
       </c>
-      <c r="D10" s="160">
+      <c r="D10" s="130">
         <v>0.23843</v>
       </c>
       <c r="E10" s="59">
@@ -5799,16 +5952,16 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="149" t="s">
+      <c r="A11" s="119" t="s">
         <v>212</v>
       </c>
-      <c r="B11" s="144">
+      <c r="B11" s="114">
         <v>19732</v>
       </c>
-      <c r="C11" s="159">
+      <c r="C11" s="129">
         <v>0.18506</v>
       </c>
-      <c r="D11" s="160">
+      <c r="D11" s="130">
         <v>0.24209</v>
       </c>
       <c r="E11" s="59">
@@ -5816,27 +5969,27 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="149" t="s">
+      <c r="A12" s="119" t="s">
         <v>217</v>
       </c>
-      <c r="B12" s="144">
+      <c r="B12" s="114">
         <v>19732</v>
       </c>
-      <c r="C12" s="159">
+      <c r="C12" s="129">
         <v>0.18275</v>
       </c>
-      <c r="D12" s="160">
+      <c r="D12" s="130">
         <v>0.23985999999999999</v>
       </c>
-      <c r="E12" s="165">
+      <c r="E12" s="135">
         <v>0.57738</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="150" t="s">
+      <c r="A13" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="B13" s="151">
+      <c r="B13" s="121">
         <v>19732</v>
       </c>
       <c r="C13" s="58">
@@ -5874,7 +6027,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="134" t="s">
         <v>219</v>
       </c>
       <c r="B1" s="64" t="s">
@@ -5891,165 +6044,165 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="117" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="144">
+      <c r="B2" s="114">
         <v>1</v>
       </c>
-      <c r="C2" s="145">
+      <c r="C2" s="115">
         <v>0.35463122000000002</v>
       </c>
-      <c r="D2" s="146">
+      <c r="D2" s="116">
         <v>0.24695503999999999</v>
       </c>
-      <c r="E2" s="166">
+      <c r="E2" s="136">
         <v>0.39841369999999998</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="151">
+      <c r="B3" s="121">
         <v>1</v>
       </c>
-      <c r="C3" s="145">
+      <c r="C3" s="115">
         <v>0.35778690000000002</v>
       </c>
-      <c r="D3" s="146">
+      <c r="D3" s="116">
         <v>0.24988082</v>
       </c>
-      <c r="E3" s="148">
+      <c r="E3" s="118">
         <v>0.39233225999999999</v>
       </c>
-      <c r="I3" s="145">
+      <c r="I3" s="115">
         <v>0.33910748000000002</v>
       </c>
-      <c r="J3" s="146">
+      <c r="J3" s="116">
         <v>0.29742540000000001</v>
       </c>
-      <c r="K3" s="148">
+      <c r="K3" s="118">
         <v>0.36346709999999999</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="125" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="156">
+      <c r="B4" s="126">
         <v>4179</v>
       </c>
-      <c r="C4" s="157">
+      <c r="C4" s="127">
         <v>0.14066071999999999</v>
       </c>
-      <c r="D4" s="158">
+      <c r="D4" s="128">
         <v>0.23469345</v>
       </c>
-      <c r="E4" s="167">
+      <c r="E4" s="137">
         <v>0.62464580000000003</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="150" t="s">
+      <c r="A5" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="151">
+      <c r="B5" s="121">
         <v>4179</v>
       </c>
-      <c r="C5" s="152">
+      <c r="C5" s="122">
         <v>0.14050377999999999</v>
       </c>
-      <c r="D5" s="153">
+      <c r="D5" s="123">
         <v>0.23501453999999999</v>
       </c>
-      <c r="E5" s="154">
+      <c r="E5" s="124">
         <v>0.62448170000000003</v>
       </c>
-      <c r="H5" s="152">
+      <c r="H5" s="122">
         <v>0.14066071999999999</v>
       </c>
-      <c r="I5" s="153">
+      <c r="I5" s="123">
         <v>0.23469345</v>
       </c>
-      <c r="J5" s="154">
+      <c r="J5" s="124">
         <v>0.62464580000000003</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="125" t="s">
         <v>209</v>
       </c>
-      <c r="B6" s="156">
+      <c r="B6" s="126">
         <v>8801</v>
       </c>
-      <c r="C6" s="145">
+      <c r="C6" s="115">
         <v>0.33908709999999997</v>
       </c>
-      <c r="D6" s="146">
+      <c r="D6" s="116">
         <v>0.29733142000000001</v>
       </c>
-      <c r="E6" s="166">
+      <c r="E6" s="136">
         <v>0.36358144999999997</v>
       </c>
-      <c r="I6" s="152" t="s">
+      <c r="I6" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="J6" s="153" t="s">
+      <c r="J6" s="123" t="s">
         <v>116</v>
       </c>
-      <c r="K6" s="154" t="s">
+      <c r="K6" s="124" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="150" t="s">
+      <c r="A7" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="151">
+      <c r="B7" s="121">
         <v>8801</v>
       </c>
-      <c r="C7" s="145">
+      <c r="C7" s="115">
         <v>0.33910748000000002</v>
       </c>
-      <c r="D7" s="146">
+      <c r="D7" s="116">
         <v>0.29742540000000001</v>
       </c>
-      <c r="E7" s="148">
+      <c r="E7" s="118">
         <v>0.36346709999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="147" t="s">
+      <c r="A8" s="117" t="s">
         <v>209</v>
       </c>
-      <c r="B8" s="144">
+      <c r="B8" s="114">
         <v>20087</v>
       </c>
-      <c r="C8" s="157">
+      <c r="C8" s="127">
         <v>7.6882560000000003E-2</v>
       </c>
-      <c r="D8" s="158">
+      <c r="D8" s="128">
         <v>6.6914946000000003E-2</v>
       </c>
-      <c r="E8" s="167">
+      <c r="E8" s="137">
         <v>0.85620249999999998</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="150" t="s">
+      <c r="A9" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="B9" s="151">
+      <c r="B9" s="121">
         <v>20087</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="122">
         <v>7.7116190000000001E-2</v>
       </c>
-      <c r="D9" s="153">
+      <c r="D9" s="123">
         <v>6.6833660000000003E-2</v>
       </c>
-      <c r="E9" s="154">
+      <c r="E9" s="124">
         <v>0.85605012999999996</v>
       </c>
     </row>
@@ -6087,82 +6240,82 @@
       </c>
     </row>
     <row r="3" spans="5:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="E3" s="168" t="s">
+      <c r="E3" s="138" t="s">
         <v>220</v>
       </c>
-      <c r="F3" s="169">
+      <c r="F3" s="139">
         <v>19691</v>
       </c>
     </row>
     <row r="4" spans="5:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="E4" s="168" t="s">
+      <c r="E4" s="138" t="s">
         <v>225</v>
       </c>
-      <c r="F4" s="170">
+      <c r="F4" s="140">
         <v>19678</v>
       </c>
     </row>
     <row r="5" spans="5:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="E5" s="168" t="s">
+      <c r="E5" s="138" t="s">
         <v>221</v>
       </c>
-      <c r="F5" s="170">
+      <c r="F5" s="140">
         <v>19675</v>
       </c>
     </row>
     <row r="6" spans="5:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="E6" s="168" t="s">
+      <c r="E6" s="138" t="s">
         <v>227</v>
       </c>
-      <c r="F6" s="170">
+      <c r="F6" s="140">
         <v>19669</v>
       </c>
     </row>
     <row r="7" spans="5:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="E7" s="168" t="s">
+      <c r="E7" s="138" t="s">
         <v>223</v>
       </c>
-      <c r="F7" s="170">
+      <c r="F7" s="140">
         <v>19662</v>
       </c>
     </row>
     <row r="8" spans="5:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="E8" s="168" t="s">
+      <c r="E8" s="138" t="s">
         <v>222</v>
       </c>
-      <c r="F8" s="170">
+      <c r="F8" s="140">
         <v>19635</v>
       </c>
     </row>
     <row r="9" spans="5:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="E9" s="168" t="s">
+      <c r="E9" s="138" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="170">
+      <c r="F9" s="140">
         <v>14627</v>
       </c>
     </row>
     <row r="10" spans="5:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="E10" s="168" t="s">
+      <c r="E10" s="138" t="s">
         <v>229</v>
       </c>
-      <c r="F10" s="170">
+      <c r="F10" s="140">
         <v>11856</v>
       </c>
     </row>
     <row r="11" spans="5:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="E11" s="168" t="s">
+      <c r="E11" s="138" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="170">
+      <c r="F11" s="140">
         <v>11854</v>
       </c>
     </row>
     <row r="12" spans="5:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="E12" s="171" t="s">
+      <c r="E12" s="141" t="s">
         <v>224</v>
       </c>
-      <c r="F12" s="172">
+      <c r="F12" s="142">
         <v>10446</v>
       </c>
     </row>
